--- a/Portfolio/虚拟组合情况.xlsx
+++ b/Portfolio/虚拟组合情况.xlsx
@@ -1,25 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20342"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="26812"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lishuyun\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klq26/github/finance-data/Portfolio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5278F5BC-649F-4191-ADE2-712D229A8F5A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9435" activeTab="2" xr2:uid="{1E0B6AA2-99E9-4114-A8B8-62A59E8E8F1F}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16660" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="且慢组合" sheetId="1" r:id="rId1"/>
     <sheet name="雪球组合" sheetId="3" r:id="rId2"/>
-    <sheet name="模拟组合与实盘对比" sheetId="2" r:id="rId3"/>
+    <sheet name="ETF计划" sheetId="4" r:id="rId3"/>
+    <sheet name="模拟组合与实盘对比" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="48">
   <si>
     <t>品种</t>
     <rPh sb="0" eb="1">
@@ -338,18 +341,40 @@
   <si>
     <t>雪球收益率</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETF计划比例</t>
+    <rPh sb="3" eb="4">
+      <t>ji'h</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bi'li</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETF计划占比</t>
+  </si>
+  <si>
+    <t>ETF计划市值</t>
+  </si>
+  <si>
+    <t>ETF计划总市值</t>
+  </si>
+  <si>
+    <t>ETF计划收益率</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="179" formatCode="0.0000_);[Red]\(0.0000\)"/>
-    <numFmt numFmtId="181" formatCode="0.0000"/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.0000_);[Red]\(0.0000\)"/>
+    <numFmt numFmtId="178" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -409,6 +434,24 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -427,11 +470,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -448,37 +497,39 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -789,21 +840,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D25E89BC-8B5B-4871-A5C5-1C996DB31928}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A1:F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -832,11 +883,11 @@
         <v>7.1000000000000004E-3</v>
       </c>
       <c r="C2" s="5">
-        <f>B2*$E$25</f>
+        <f t="shared" ref="C2:C19" si="0">B2*$E$25</f>
         <v>6259.9280000000008</v>
       </c>
       <c r="D2" s="3">
-        <f>C2/($E$25+$C$24+$F$8)</f>
+        <f t="shared" ref="D2:D24" si="1">C2/($E$25+$C$24+$F$8)</f>
         <v>6.247969012432064E-3</v>
       </c>
       <c r="F2" s="1">
@@ -853,11 +904,11 @@
         <v>4.7E-2</v>
       </c>
       <c r="C3" s="5">
-        <f>B3*$E$25</f>
+        <f t="shared" si="0"/>
         <v>41438.960000000006</v>
       </c>
       <c r="D3" s="3">
-        <f>C3/($E$25+$C$24+$F$8)</f>
+        <f t="shared" si="1"/>
         <v>4.1359794871029157E-2</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -873,11 +924,11 @@
         <v>0.26530000000000004</v>
       </c>
       <c r="C4" s="5">
-        <f>B4*$E$25</f>
+        <f t="shared" si="0"/>
         <v>233909.70400000006</v>
       </c>
       <c r="D4" s="3">
-        <f>C4/($E$25+$C$24+$F$8)</f>
+        <f t="shared" si="1"/>
         <v>0.23346284211242629</v>
       </c>
       <c r="F4" s="1">
@@ -892,11 +943,11 @@
         <v>6.8900000000000003E-2</v>
       </c>
       <c r="C5" s="5">
-        <f>B5*$E$25</f>
+        <f t="shared" si="0"/>
         <v>60747.752000000008</v>
       </c>
       <c r="D5" s="3">
-        <f>C5/($E$25+$C$24+$F$8)</f>
+        <f t="shared" si="1"/>
         <v>6.0631699289657635E-2</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -912,11 +963,11 @@
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="C6" s="5">
-        <f>B6*$E$25</f>
+        <f t="shared" si="0"/>
         <v>19396.960000000003</v>
       </c>
       <c r="D6" s="3">
-        <f>C6/($E$25+$C$24+$F$8)</f>
+        <f t="shared" si="1"/>
         <v>1.935990398218386E-2</v>
       </c>
       <c r="F6" s="1">
@@ -931,11 +982,11 @@
         <v>8.9300000000000004E-2</v>
       </c>
       <c r="C7" s="5">
-        <f>B7*$E$25</f>
+        <f t="shared" si="0"/>
         <v>78734.024000000019</v>
       </c>
       <c r="D7" s="3">
-        <f>C7/($E$25+$C$24+$F$8)</f>
+        <f t="shared" si="1"/>
         <v>7.8583610254955402E-2</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -950,11 +1001,11 @@
         <v>7.46E-2</v>
       </c>
       <c r="C8" s="5">
-        <f>B8*$E$25</f>
+        <f t="shared" si="0"/>
         <v>65773.328000000009</v>
       </c>
       <c r="D8" s="3">
-        <f>C8/($E$25+$C$24+$F$8)</f>
+        <f t="shared" si="1"/>
         <v>6.5647674412314366E-2</v>
       </c>
       <c r="F8" s="1">
@@ -970,11 +1021,11 @@
         <v>6.9699999999999998E-2</v>
       </c>
       <c r="C9" s="5">
-        <f>B9*$E$25</f>
+        <f t="shared" si="0"/>
         <v>61453.096000000005</v>
       </c>
       <c r="D9" s="3">
-        <f>C9/($E$25+$C$24+$F$8)</f>
+        <f t="shared" si="1"/>
         <v>6.1335695798100678E-2</v>
       </c>
     </row>
@@ -987,11 +1038,11 @@
         <v>2.8199999999999999E-2</v>
       </c>
       <c r="C10" s="5">
-        <f>B10*$E$25</f>
+        <f t="shared" si="0"/>
         <v>24863.376000000004</v>
       </c>
       <c r="D10" s="3">
-        <f>C10/($E$25+$C$24+$F$8)</f>
+        <f t="shared" si="1"/>
         <v>2.4815876922617493E-2</v>
       </c>
     </row>
@@ -1004,11 +1055,11 @@
         <v>6.1200000000000004E-2</v>
       </c>
       <c r="C11" s="5">
-        <f>B11*$E$25</f>
+        <f t="shared" si="0"/>
         <v>53958.816000000013</v>
       </c>
       <c r="D11" s="3">
-        <f>C11/($E$25+$C$24+$F$8)</f>
+        <f t="shared" si="1"/>
         <v>5.3855732895893293E-2</v>
       </c>
     </row>
@@ -1021,11 +1072,11 @@
         <v>7.6E-3</v>
       </c>
       <c r="C12" s="5">
-        <f>B12*$E$25</f>
+        <f t="shared" si="0"/>
         <v>6700.7680000000009</v>
       </c>
       <c r="D12" s="3">
-        <f>C12/($E$25+$C$24+$F$8)</f>
+        <f t="shared" si="1"/>
         <v>6.6879668302089702E-3</v>
       </c>
     </row>
@@ -1038,11 +1089,11 @@
         <v>2.1499999999999998E-2</v>
       </c>
       <c r="C13" s="5">
-        <f>B13*$E$25</f>
+        <f t="shared" si="0"/>
         <v>18956.120000000003</v>
       </c>
       <c r="D13" s="3">
-        <f>C13/($E$25+$C$24+$F$8)</f>
+        <f t="shared" si="1"/>
         <v>1.8919906164406954E-2</v>
       </c>
     </row>
@@ -1055,11 +1106,11 @@
         <v>3.0499999999999999E-2</v>
       </c>
       <c r="C14" s="5">
-        <f>B14*$E$25</f>
+        <f t="shared" si="0"/>
         <v>26891.24</v>
       </c>
       <c r="D14" s="3">
-        <f>C14/($E$25+$C$24+$F$8)</f>
+        <f t="shared" si="1"/>
         <v>2.6839866884391259E-2</v>
       </c>
     </row>
@@ -1072,11 +1123,11 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="C15" s="5">
-        <f>B15*$E$25</f>
+        <f t="shared" si="0"/>
         <v>5290.0800000000008</v>
       </c>
       <c r="D15" s="3">
-        <f>C15/($E$25+$C$24+$F$8)</f>
+        <f t="shared" si="1"/>
         <v>5.2799738133228712E-3</v>
       </c>
     </row>
@@ -1088,11 +1139,11 @@
         <v>1.2699999999999999E-2</v>
       </c>
       <c r="C16" s="5">
-        <f>B16*$E$25</f>
+        <f t="shared" si="0"/>
         <v>11197.336000000001</v>
       </c>
       <c r="D16" s="3">
-        <f>C16/($E$25+$C$24+$F$8)</f>
+        <f t="shared" si="1"/>
         <v>1.1175944571533409E-2</v>
       </c>
     </row>
@@ -1104,11 +1155,11 @@
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="C17" s="5">
-        <f>B17*$E$25</f>
+        <f t="shared" si="0"/>
         <v>14988.560000000003</v>
       </c>
       <c r="D17" s="3">
-        <f>C17/($E$25+$C$24+$F$8)</f>
+        <f t="shared" si="1"/>
         <v>1.4959925804414803E-2</v>
       </c>
     </row>
@@ -1120,11 +1171,11 @@
         <v>1.09E-2</v>
       </c>
       <c r="C18" s="5">
-        <f>B18*$E$25</f>
+        <f t="shared" si="0"/>
         <v>9610.3120000000017</v>
       </c>
       <c r="D18" s="3">
-        <f>C18/($E$25+$C$24+$F$8)</f>
+        <f t="shared" si="1"/>
         <v>9.5919524275365486E-3</v>
       </c>
     </row>
@@ -1136,11 +1187,11 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="C19" s="5">
-        <f>B19*$E$25</f>
+        <f t="shared" si="0"/>
         <v>5290.0800000000008</v>
       </c>
       <c r="D19" s="3">
-        <f>C19/($E$25+$C$24+$F$8)</f>
+        <f t="shared" si="1"/>
         <v>5.2799738133228712E-3</v>
       </c>
     </row>
@@ -1153,7 +1204,7 @@
         <v>16634.060000000001</v>
       </c>
       <c r="D20" s="3">
-        <f>C20/($E$25+$C$24+$F$8)</f>
+        <f t="shared" si="1"/>
         <v>1.6602282235664005E-2</v>
       </c>
     </row>
@@ -1170,7 +1221,7 @@
         <v>39940.103999999999</v>
       </c>
       <c r="D21" s="3">
-        <f>C21/($E$25+$C$24+$F$8)</f>
+        <f t="shared" si="1"/>
         <v>3.9863802290587669E-2</v>
       </c>
     </row>
@@ -1186,7 +1237,7 @@
         <v>5466.4160000000002</v>
       </c>
       <c r="D22" s="3">
-        <f>C22/($E$25+$C$24+$F$8)</f>
+        <f t="shared" si="1"/>
         <v>5.4559729404336328E-3</v>
       </c>
     </row>
@@ -1202,7 +1253,7 @@
         <v>90813.040000000008</v>
       </c>
       <c r="D23" s="3">
-        <f>C23/($E$25+$C$24+$F$8)</f>
+        <f t="shared" si="1"/>
         <v>9.0639550462042612E-2</v>
       </c>
     </row>
@@ -1215,7 +1266,7 @@
         <v>103600</v>
       </c>
       <c r="D24" s="3">
-        <f>C24/($E$25+$C$24+$F$8)</f>
+        <f t="shared" si="1"/>
         <v>0.1034020822105241</v>
       </c>
     </row>
@@ -1266,20 +1317,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89FDBD77-1BA1-4E74-AE89-13B0237061F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="C22" sqref="A1:F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -1308,11 +1359,11 @@
         <v>9.1999999999999998E-3</v>
       </c>
       <c r="C2" s="5">
-        <f>B2*$E$25</f>
+        <f t="shared" ref="C2:C19" si="0">B2*$E$25</f>
         <v>8196.0959999999995</v>
       </c>
       <c r="D2" s="3">
-        <f>C2/($E$25+$C$24+$F$8)</f>
+        <f t="shared" ref="D2:D24" si="1">C2/($E$25+$C$24+$F$8)</f>
         <v>8.1060053699579648E-3</v>
       </c>
       <c r="F2" s="1">
@@ -1328,11 +1379,11 @@
         <v>6.7299999999999999E-2</v>
       </c>
       <c r="C3" s="5">
-        <f>B3*$E$25</f>
+        <f t="shared" si="0"/>
         <v>59956.223999999987</v>
       </c>
       <c r="D3" s="3">
-        <f>C3/($E$25+$C$24+$F$8)</f>
+        <f t="shared" si="1"/>
         <v>5.929719145632293E-2</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -1347,11 +1398,11 @@
         <v>0.26119999999999999</v>
       </c>
       <c r="C4" s="5">
-        <f>B4*$E$25</f>
+        <f t="shared" si="0"/>
         <v>232697.85599999997</v>
       </c>
       <c r="D4" s="3">
-        <f>C4/($E$25+$C$24+$F$8)</f>
+        <f t="shared" si="1"/>
         <v>0.23014006550358918</v>
       </c>
       <c r="F4" s="1">
@@ -1366,11 +1417,11 @@
         <v>7.1499999999999994E-2</v>
       </c>
       <c r="C5" s="5">
-        <f>B5*$E$25</f>
+        <f t="shared" si="0"/>
         <v>63697.919999999984</v>
       </c>
       <c r="D5" s="3">
-        <f>C5/($E$25+$C$24+$F$8)</f>
+        <f t="shared" si="1"/>
         <v>6.2997759125216782E-2</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -1385,11 +1436,11 @@
         <v>4.3499999999999997E-2</v>
       </c>
       <c r="C6" s="5">
-        <f>B6*$E$25</f>
+        <f t="shared" si="0"/>
         <v>38753.279999999992</v>
       </c>
       <c r="D6" s="3">
-        <f>C6/($E$25+$C$24+$F$8)</f>
+        <f t="shared" si="1"/>
         <v>3.8327307999257765E-2</v>
       </c>
       <c r="F6" s="1">
@@ -1404,11 +1455,11 @@
         <v>9.2100000000000001E-2</v>
       </c>
       <c r="C7" s="5">
-        <f>B7*$E$25</f>
+        <f t="shared" si="0"/>
         <v>82050.047999999995</v>
       </c>
       <c r="D7" s="3">
-        <f>C7/($E$25+$C$24+$F$8)</f>
+        <f t="shared" si="1"/>
         <v>8.114816245360093E-2</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -1421,11 +1472,11 @@
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="5">
-        <f>B8*$E$25</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D8" s="3">
-        <f>C8/($E$25+$C$24+$F$8)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F8" s="1">
@@ -1440,11 +1491,11 @@
         <v>0.11070000000000001</v>
       </c>
       <c r="C9" s="5">
-        <f>B9*$E$25</f>
+        <f t="shared" si="0"/>
         <v>98620.415999999997</v>
       </c>
       <c r="D9" s="3">
-        <f>C9/($E$25+$C$24+$F$8)</f>
+        <f t="shared" si="1"/>
         <v>9.7536390701559436E-2</v>
       </c>
     </row>
@@ -1456,11 +1507,11 @@
         <v>6.5299999999999997E-2</v>
       </c>
       <c r="C10" s="5">
-        <f>B10*$E$25</f>
+        <f t="shared" si="0"/>
         <v>58174.463999999993</v>
       </c>
       <c r="D10" s="3">
-        <f>C10/($E$25+$C$24+$F$8)</f>
+        <f t="shared" si="1"/>
         <v>5.7535016375897294E-2</v>
       </c>
     </row>
@@ -1472,11 +1523,11 @@
         <v>7.3599999999999999E-2</v>
       </c>
       <c r="C11" s="5">
-        <f>B11*$E$25</f>
+        <f t="shared" si="0"/>
         <v>65568.767999999996</v>
       </c>
       <c r="D11" s="3">
-        <f>C11/($E$25+$C$24+$F$8)</f>
+        <f t="shared" si="1"/>
         <v>6.4848042959663718E-2</v>
       </c>
     </row>
@@ -1488,11 +1539,11 @@
         <v>1.2E-2</v>
       </c>
       <c r="C12" s="5">
-        <f>B12*$E$25</f>
+        <f t="shared" si="0"/>
         <v>10690.56</v>
       </c>
       <c r="D12" s="3">
-        <f>C12/($E$25+$C$24+$F$8)</f>
+        <f t="shared" si="1"/>
         <v>1.0573050482553867E-2</v>
       </c>
     </row>
@@ -1504,11 +1555,11 @@
         <v>1.95E-2</v>
       </c>
       <c r="C13" s="5">
-        <f>B13*$E$25</f>
+        <f t="shared" si="0"/>
         <v>17372.159999999996</v>
       </c>
       <c r="D13" s="3">
-        <f>C13/($E$25+$C$24+$F$8)</f>
+        <f t="shared" si="1"/>
         <v>1.718120703415003E-2</v>
       </c>
     </row>
@@ -1520,11 +1571,11 @@
         <v>3.9199999999999999E-2</v>
       </c>
       <c r="C14" s="5">
-        <f>B14*$E$25</f>
+        <f t="shared" si="0"/>
         <v>34922.495999999992</v>
       </c>
       <c r="D14" s="3">
-        <f>C14/($E$25+$C$24+$F$8)</f>
+        <f t="shared" si="1"/>
         <v>3.4538631576342627E-2</v>
       </c>
     </row>
@@ -1536,11 +1587,11 @@
         <v>8.8000000000000005E-3</v>
       </c>
       <c r="C15" s="5">
-        <f>B15*$E$25</f>
+        <f t="shared" si="0"/>
         <v>7839.7439999999997</v>
       </c>
       <c r="D15" s="3">
-        <f>C15/($E$25+$C$24+$F$8)</f>
+        <f t="shared" si="1"/>
         <v>7.753570353872836E-3</v>
       </c>
     </row>
@@ -1552,11 +1603,11 @@
         <v>1.8800000000000001E-2</v>
       </c>
       <c r="C16" s="5">
-        <f>B16*$E$25</f>
+        <f t="shared" si="0"/>
         <v>16748.543999999998</v>
       </c>
       <c r="D16" s="3">
-        <f>C16/($E$25+$C$24+$F$8)</f>
+        <f t="shared" si="1"/>
         <v>1.6564445756001057E-2</v>
       </c>
     </row>
@@ -1568,11 +1619,11 @@
         <v>1.5900000000000001E-2</v>
       </c>
       <c r="C17" s="5">
-        <f>B17*$E$25</f>
+        <f t="shared" si="0"/>
         <v>14164.991999999998</v>
       </c>
       <c r="D17" s="3">
-        <f>C17/($E$25+$C$24+$F$8)</f>
+        <f t="shared" si="1"/>
         <v>1.4009291889383874E-2</v>
       </c>
     </row>
@@ -1584,11 +1635,11 @@
         <v>1.61E-2</v>
       </c>
       <c r="C18" s="5">
-        <f>B18*$E$25</f>
+        <f t="shared" si="0"/>
         <v>14343.167999999998</v>
       </c>
       <c r="D18" s="3">
-        <f>C18/($E$25+$C$24+$F$8)</f>
+        <f t="shared" si="1"/>
         <v>1.4185509397426438E-2</v>
       </c>
     </row>
@@ -1600,11 +1651,11 @@
         <v>8.3000000000000001E-3</v>
       </c>
       <c r="C19" s="5">
-        <f>B19*$E$25</f>
+        <f t="shared" si="0"/>
         <v>7394.3039999999992</v>
       </c>
       <c r="D19" s="3">
-        <f>C19/($E$25+$C$24+$F$8)</f>
+        <f t="shared" si="1"/>
         <v>7.3130265837664243E-3</v>
       </c>
     </row>
@@ -1617,7 +1668,7 @@
         <v>16634.060000000001</v>
       </c>
       <c r="D20" s="3">
-        <f>C20/($E$25+$C$24+$F$8)</f>
+        <f t="shared" si="1"/>
         <v>1.6451220152155735E-2</v>
       </c>
     </row>
@@ -1631,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="D21" s="3">
-        <f>C21/($E$25+$C$24+$F$8)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1645,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="D22" s="3">
-        <f>C22/($E$25+$C$24+$F$8)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1661,7 +1712,7 @@
         <v>59688.959999999999</v>
       </c>
       <c r="D23" s="3">
-        <f>C23/($E$25+$C$24+$F$8)</f>
+        <f t="shared" si="1"/>
         <v>5.9032865194259099E-2</v>
       </c>
     </row>
@@ -1674,7 +1725,7 @@
         <v>103600</v>
       </c>
       <c r="D24" s="3">
-        <f>C24/($E$25+$C$24+$F$8)</f>
+        <f t="shared" si="1"/>
         <v>0.10246123963502199</v>
       </c>
     </row>
@@ -1715,6 +1766,474 @@
       <c r="E28" s="9">
         <f>E27/F2</f>
         <v>1.1030727573007704</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <f>7.08%+0.71%</f>
+        <v>7.7899999999999997E-2</v>
+      </c>
+      <c r="C2" s="5">
+        <f t="shared" ref="C2:C19" si="0">B2*$E$25</f>
+        <v>75226.471999999994</v>
+      </c>
+      <c r="D2" s="3">
+        <f t="shared" ref="D2:D24" si="1">C2/($E$25+$C$24+$F$8)</f>
+        <v>6.9274793255738848E-2</v>
+      </c>
+      <c r="F2" s="1">
+        <f>F4+F6+F8</f>
+        <v>916634.06</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <f>5.44%</f>
+        <v>5.4400000000000004E-2</v>
+      </c>
+      <c r="C3" s="5">
+        <f t="shared" si="0"/>
+        <v>52532.992000000006</v>
+      </c>
+      <c r="D3" s="3">
+        <f t="shared" si="1"/>
+        <v>4.8376749077178358E-2</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.15790000000000001</v>
+      </c>
+      <c r="C4" s="5">
+        <f t="shared" si="0"/>
+        <v>152480.872</v>
+      </c>
+      <c r="D4" s="3">
+        <f t="shared" si="1"/>
+        <v>0.14041707131041289</v>
+      </c>
+      <c r="F4" s="1">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="C6" s="5">
+        <f t="shared" si="0"/>
+        <v>28004.720000000001</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" si="1"/>
+        <v>2.5789075794819344E-2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>9.3799999999999994E-2</v>
+      </c>
+      <c r="C7" s="5">
+        <f t="shared" si="0"/>
+        <v>90580.784</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="1"/>
+        <v>8.3414321019105314E-2</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>7.4399999999999994E-2</v>
+      </c>
+      <c r="C8" s="5">
+        <f t="shared" si="0"/>
+        <v>71846.59199999999</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="1"/>
+        <v>6.6162318590846855E-2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>16634.060000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>6.7799999999999999E-2</v>
+      </c>
+      <c r="C9" s="5">
+        <f t="shared" si="0"/>
+        <v>65473.103999999999</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="1"/>
+        <v>6.0293080651336255E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>3.2300000000000002E-2</v>
+      </c>
+      <c r="C10" s="5">
+        <f t="shared" si="0"/>
+        <v>31191.464000000004</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="1"/>
+        <v>2.8723694764574651E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>5.6399999999999999E-2</v>
+      </c>
+      <c r="C11" s="5">
+        <f t="shared" si="0"/>
+        <v>54464.351999999999</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="1"/>
+        <v>5.0155306028545205E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>7.7999999999999996E-3</v>
+      </c>
+      <c r="C12" s="5">
+        <f t="shared" si="0"/>
+        <v>7532.3040000000001</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="1"/>
+        <v>6.9363721103307199E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>2.0199999999999999E-2</v>
+      </c>
+      <c r="C13" s="5">
+        <f t="shared" si="0"/>
+        <v>19506.736000000001</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="1"/>
+        <v>1.7963425208805197E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <v>2.7699999999999999E-2</v>
+      </c>
+      <c r="C14" s="5">
+        <f t="shared" si="0"/>
+        <v>26749.335999999999</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" si="1"/>
+        <v>2.4633013776430887E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3">
+        <v>7.4300000000000005E-2</v>
+      </c>
+      <c r="C15" s="5">
+        <f t="shared" si="0"/>
+        <v>71750.024000000005</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="1"/>
+        <v>6.6073390743278532E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1.18E-2</v>
+      </c>
+      <c r="C16" s="5">
+        <f t="shared" si="0"/>
+        <v>11395.023999999999</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0493486013064421E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3">
+        <v>2.46E-2</v>
+      </c>
+      <c r="C17" s="5">
+        <f>B17*$E$25</f>
+        <v>23755.727999999999</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="1"/>
+        <v>2.1876250501812269E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="C18" s="5">
+        <f t="shared" si="0"/>
+        <v>18058.216</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" si="1"/>
+        <v>1.6629507495280058E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3">
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="C19" s="5">
+        <f t="shared" si="0"/>
+        <v>5214.6720000000005</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="1"/>
+        <v>4.8021037686904987E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="5">
+        <v>16634.060000000001</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" si="1"/>
+        <v>1.5318026179714443E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3">
+        <f>3.32%+3.09%</f>
+        <v>6.409999999999999E-2</v>
+      </c>
+      <c r="C21" s="5">
+        <f>B21*$E$25</f>
+        <v>61900.087999999989</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="1"/>
+        <v>5.7002750291307566E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="C22" s="5">
+        <f>B22*$E$25</f>
+        <v>5890.6480000000001</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" si="1"/>
+        <v>5.4245987016688958E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3">
+        <v>9.5399999999999999E-2</v>
+      </c>
+      <c r="C23" s="5">
+        <f>B23*$E$25</f>
+        <v>92125.872000000003</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="1"/>
+        <v>8.4837166580198797E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="5">
+        <v>103600</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" si="1"/>
+        <v>9.5403498136859929E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="4">
+        <f>F4*E26</f>
+        <v>965680</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="7">
+        <v>1.2071000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="E27" s="8">
+        <f>E25+C20+C24</f>
+        <v>1085914.06</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="9">
+        <f>E27/F2</f>
+        <v>1.1846756599902037</v>
       </c>
     </row>
   </sheetData>
@@ -1723,20 +2242,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EADFC9B8-5BC9-44F7-9057-FA6F5E6174CB}">
-  <dimension ref="A1:D26"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1749,8 +2269,11 @@
       <c r="D1" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1758,14 +2281,17 @@
         <v>6.247969012432064E-3</v>
       </c>
       <c r="C2" s="3">
-        <f ca="1">B2/($E$25+$C$24+$F$8)</f>
-        <v>8.1060053699579648E-3</v>
+        <f t="shared" ref="C2:C24" si="0">B2/($E$25+$C$24+$F$8)</f>
+        <v>6.0978854391065394E-2</v>
       </c>
       <c r="D2" s="3">
         <v>7.7600958260018154E-3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" s="3">
+        <v>6.9274793255738848E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1773,14 +2299,17 @@
         <v>4.1359794871029157E-2</v>
       </c>
       <c r="C3" s="3">
-        <f ca="1">B3/($E$25+$C$24+$F$8)</f>
-        <v>5.929719145632293E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.40366283892677091</v>
       </c>
       <c r="D3" s="3">
         <v>5.2275371830770384E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" s="3">
+        <v>4.8376749077178358E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1788,14 +2317,17 @@
         <v>0.23346284211242629</v>
       </c>
       <c r="C4" s="3">
-        <f ca="1">B4/($E$25+$C$24+$F$8)</f>
-        <v>0.23014006550358918</v>
+        <f t="shared" si="0"/>
+        <v>2.2785478971760069</v>
       </c>
       <c r="D4" s="3">
         <v>0.19196293281744362</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" s="3">
+        <v>0.14041707131041289</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1803,14 +2335,17 @@
         <v>6.0631699289657635E-2</v>
       </c>
       <c r="C5" s="3">
-        <f ca="1">B5/($E$25+$C$24+$F$8)</f>
-        <v>6.2997759125216782E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.59175254472456418</v>
       </c>
       <c r="D5" s="3">
         <v>3.9566431373305767E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1818,14 +2353,17 @@
         <v>1.935990398218386E-2</v>
       </c>
       <c r="C6" s="3">
-        <f ca="1">B6/($E$25+$C$24+$F$8)</f>
-        <v>3.8327307999257765E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.18894856290189277</v>
       </c>
       <c r="D6" s="3">
         <v>2.3968775722744012E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6" s="3">
+        <v>2.5789075794819344E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1833,14 +2371,17 @@
         <v>7.8583610254955402E-2</v>
       </c>
       <c r="C7" s="3">
-        <f ca="1">B7/($E$25+$C$24+$F$8)</f>
-        <v>8.114816245360093E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.76695939396086477</v>
       </c>
       <c r="D7" s="3">
         <v>7.6676142983394008E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7" s="3">
+        <v>8.3414321019105314E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1848,14 +2389,17 @@
         <v>6.5647674412314366E-2</v>
       </c>
       <c r="C8" s="3">
-        <f ca="1">B8/($E$25+$C$24+$F$8)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.64070739965823642</v>
       </c>
       <c r="D8" s="3">
         <v>6.5210295796365378E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8" s="3">
+        <v>6.6162318590846855E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1863,14 +2407,17 @@
         <v>6.1335695798100678E-2</v>
       </c>
       <c r="C9" s="3">
-        <f ca="1">B9/($E$25+$C$24+$F$8)</f>
-        <v>9.7536390701559436E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.59862340155736016</v>
       </c>
       <c r="D9" s="3">
         <v>5.3433519423410285E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9" s="3">
+        <v>6.0293080651336255E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1878,14 +2425,17 @@
         <v>2.4815876922617493E-2</v>
       </c>
       <c r="C10" s="3">
-        <f ca="1">B10/($E$25+$C$24+$F$8)</f>
-        <v>5.7535016375897294E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.24219770335606255</v>
       </c>
       <c r="D10" s="3">
         <v>3.1054181482929741E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10" s="3">
+        <v>2.8723694764574651E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -1893,14 +2443,17 @@
         <v>5.3855732895893293E-2</v>
       </c>
       <c r="C11" s="3">
-        <f ca="1">B11/($E$25+$C$24+$F$8)</f>
-        <v>6.4848042959663718E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.52562054770890176</v>
       </c>
       <c r="D11" s="3">
         <v>4.7412965124601955E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11" s="3">
+        <v>5.0155306028545205E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -1908,14 +2461,17 @@
         <v>6.6879668302089702E-3</v>
       </c>
       <c r="C12" s="3">
-        <f ca="1">B12/($E$25+$C$24+$F$8)</f>
-        <v>1.0573050482553867E-2</v>
+        <f t="shared" si="0"/>
+        <v>6.5273139911562958E-2</v>
       </c>
       <c r="D12" s="3">
         <v>9.2501867200234424E-3</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12" s="3">
+        <v>6.9363721103307199E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -1923,14 +2479,17 @@
         <v>1.8919906164406954E-2</v>
       </c>
       <c r="C13" s="3">
-        <f ca="1">B13/($E$25+$C$24+$F$8)</f>
-        <v>1.718120703415003E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.1846542773813952</v>
       </c>
       <c r="D13" s="3">
         <v>2.3433273509199267E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13" s="3">
+        <v>1.7963425208805197E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -1938,14 +2497,17 @@
         <v>2.6839866884391259E-2</v>
       </c>
       <c r="C14" s="3">
-        <f ca="1">B14/($E$25+$C$24+$F$8)</f>
-        <v>3.4538631576342627E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.26195141675035133</v>
       </c>
       <c r="D14" s="3">
         <v>3.5227057415285472E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14" s="3">
+        <v>2.4633013776430887E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -1953,14 +2515,17 @@
         <v>5.2799738133228712E-3</v>
       </c>
       <c r="C15" s="3">
-        <f ca="1">B15/($E$25+$C$24+$F$8)</f>
-        <v>7.753570353872836E-3</v>
+        <f t="shared" si="0"/>
+        <v>5.1531426245970756E-2</v>
       </c>
       <c r="D15" s="3">
         <v>6.957011150093749E-3</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15" s="3">
+        <v>6.6073390743278532E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -1968,14 +2533,17 @@
         <v>1.1175944571533409E-2</v>
       </c>
       <c r="C16" s="3">
-        <f ca="1">B16/($E$25+$C$24+$F$8)</f>
-        <v>1.6564445756001057E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.10907485222063809</v>
       </c>
       <c r="D16" s="3">
         <v>1.4003608254450848E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16" s="3">
+        <v>1.0493486013064421E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -1983,14 +2551,17 @@
         <v>1.4959925804414803E-2</v>
       </c>
       <c r="C17" s="3">
-        <f ca="1">B17/($E$25+$C$24+$F$8)</f>
-        <v>1.4009291889383874E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.14600570769691715</v>
       </c>
       <c r="D17" s="3">
         <v>1.6145760200855695E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17" s="3">
+        <v>2.1876250501812269E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -1998,14 +2569,17 @@
         <v>9.5919524275365486E-3</v>
       </c>
       <c r="C18" s="3">
-        <f ca="1">B18/($E$25+$C$24+$F$8)</f>
-        <v>1.4185509397426438E-2</v>
+        <f t="shared" si="0"/>
+        <v>9.3615424346846873E-2</v>
       </c>
       <c r="D18" s="3">
         <v>1.2778350407881323E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18" s="3">
+        <v>1.6629507495280058E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -2013,14 +2587,17 @@
         <v>5.2799738133228712E-3</v>
       </c>
       <c r="C19" s="3">
-        <f ca="1">B19/($E$25+$C$24+$F$8)</f>
-        <v>7.3130265837664243E-3</v>
+        <f t="shared" si="0"/>
+        <v>5.1531426245970756E-2</v>
       </c>
       <c r="D19" s="3">
         <v>6.8855979085149666E-3</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19" s="3">
+        <v>4.8021037686904987E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -2028,14 +2605,17 @@
         <v>1.6602282235664005E-2</v>
       </c>
       <c r="C20" s="3">
-        <f ca="1">B20/($E$25+$C$24+$F$8)</f>
-        <v>1.6451220152155735E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.16203475865413233</v>
       </c>
       <c r="D20" s="3">
         <v>1.6983227894463923E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20" s="3">
+        <v>1.5318026179714443E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -2043,14 +2623,17 @@
         <v>3.9863802290587669E-2</v>
       </c>
       <c r="C21" s="3">
-        <f ca="1">B21/($E$25+$C$24+$F$8)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.38906226815707912</v>
       </c>
       <c r="D21" s="3">
         <v>5.1327283625696982E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E21" s="3">
+        <v>5.7002750291307566E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -2058,14 +2641,17 @@
         <v>5.4559729404336328E-3</v>
       </c>
       <c r="C22" s="3">
-        <f ca="1">B22/($E$25+$C$24+$F$8)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>5.3249140454169772E-2</v>
       </c>
       <c r="D22" s="3">
         <v>7.1379410488239051E-3</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E22" s="3">
+        <v>5.4245987016688958E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -2073,14 +2659,17 @@
         <v>9.0639550462042612E-2</v>
       </c>
       <c r="C23" s="3">
-        <f ca="1">B23/($E$25+$C$24+$F$8)</f>
-        <v>5.9032865194259099E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.88462281722249791</v>
       </c>
       <c r="D23" s="3">
         <v>0.10466174234531715</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E23" s="3">
+        <v>8.4837166580198797E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -2088,20 +2677,22 @@
         <v>0.1034020822105241</v>
       </c>
       <c r="C24" s="3">
-        <f ca="1">B24/($E$25+$C$24+$F$8)</f>
         <v>0.10246123963502199</v>
       </c>
       <c r="D24" s="3">
         <v>0.10588824713842634</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E24" s="3">
+        <v>9.5403498136859929E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>37</v>
       </c>
@@ -2113,6 +2704,9 @@
       </c>
       <c r="D26" s="11">
         <v>1.0673999999999999</v>
+      </c>
+      <c r="E26" s="7">
+        <v>1.2071000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Portfolio/虚拟组合情况.xlsx
+++ b/Portfolio/虚拟组合情况.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16660" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16660" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="且慢组合" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="50">
   <si>
     <t>品种</t>
     <rPh sb="0" eb="1">
@@ -312,16 +312,6 @@
   </si>
   <si>
     <t>资产配置收益率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>净值</t>
-    <rPh sb="0" eb="1">
-      <t>zong</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>shou'yi'l</t>
-    </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -363,6 +353,33 @@
   </si>
   <si>
     <t>ETF计划收益率</t>
+  </si>
+  <si>
+    <t>住房公积金</t>
+    <rPh sb="0" eb="1">
+      <t>zhu'fang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gon'jj'j</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公积金</t>
+    <rPh sb="0" eb="1">
+      <t>gong'j'j</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>资产收益率</t>
+    <rPh sb="0" eb="1">
+      <t>zi'c</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shou'yi'lv</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -374,7 +391,7 @@
     <numFmt numFmtId="177" formatCode="0.0000_);[Red]\(0.0000\)"/>
     <numFmt numFmtId="178" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -426,15 +443,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="8" tint="-0.249977111117893"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -470,21 +478,87 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -515,21 +589,37 @@
     <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="26">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="24" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="25" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -841,10 +931,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A1:F28"/>
+      <selection activeCell="D2" sqref="D2:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -883,16 +973,16 @@
         <v>7.1000000000000004E-3</v>
       </c>
       <c r="C2" s="5">
-        <f t="shared" ref="C2:C19" si="0">B2*$E$25</f>
+        <f t="shared" ref="C2:C19" si="0">B2*$E$26</f>
         <v>6259.9280000000008</v>
       </c>
       <c r="D2" s="3">
-        <f t="shared" ref="D2:D24" si="1">C2/($E$25+$C$24+$F$8)</f>
-        <v>6.247969012432064E-3</v>
+        <f>C2/($E$26+$C$24+$F$8+$C$25)</f>
+        <v>4.8774625128606567E-3</v>
       </c>
       <c r="F2" s="1">
-        <f>F4+F6+F8</f>
-        <v>916634.06</v>
+        <f>F4+F6+F8+F10</f>
+        <v>1198159.49</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -908,8 +998,8 @@
         <v>41438.960000000006</v>
       </c>
       <c r="D3" s="3">
-        <f t="shared" si="1"/>
-        <v>4.1359794871029157E-2</v>
+        <f t="shared" ref="D3:D24" si="1">C3/($E$26+$C$24+$F$8+$C$25)</f>
+        <v>3.2287427902035336E-2</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>25</v>
@@ -929,7 +1019,7 @@
       </c>
       <c r="D4" s="3">
         <f t="shared" si="1"/>
-        <v>0.23346284211242629</v>
+        <v>0.18225222600872287</v>
       </c>
       <c r="F4" s="1">
         <v>800000</v>
@@ -948,7 +1038,7 @@
       </c>
       <c r="D5" s="3">
         <f t="shared" si="1"/>
-        <v>6.0631699289657635E-2</v>
+        <v>4.7331995371281584E-2</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>26</v>
@@ -968,7 +1058,7 @@
       </c>
       <c r="D6" s="3">
         <f t="shared" si="1"/>
-        <v>1.935990398218386E-2</v>
+        <v>1.5113264124356965E-2</v>
       </c>
       <c r="F6" s="1">
         <v>100000</v>
@@ -987,7 +1077,7 @@
       </c>
       <c r="D7" s="3">
         <f t="shared" si="1"/>
-        <v>7.8583610254955402E-2</v>
+        <v>6.1346113013867137E-2</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>27</v>
@@ -1006,7 +1096,7 @@
       </c>
       <c r="D8" s="3">
         <f t="shared" si="1"/>
-        <v>6.5647674412314366E-2</v>
+        <v>5.1247704712592254E-2</v>
       </c>
       <c r="F8" s="1">
         <v>16634.060000000001</v>
@@ -1026,7 +1116,10 @@
       </c>
       <c r="D9" s="3">
         <f t="shared" si="1"/>
-        <v>6.1335695798100678E-2</v>
+        <v>4.7881568612167288E-2</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1043,7 +1136,10 @@
       </c>
       <c r="D10" s="3">
         <f t="shared" si="1"/>
-        <v>2.4815876922617493E-2</v>
+        <v>1.9372456741221202E-2</v>
+      </c>
+      <c r="F10" s="1">
+        <v>281525.43</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1060,7 +1156,7 @@
       </c>
       <c r="D11" s="3">
         <f t="shared" si="1"/>
-        <v>5.3855732895893293E-2</v>
+        <v>4.2042352927756654E-2</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1077,7 +1173,7 @@
       </c>
       <c r="D12" s="3">
         <f t="shared" si="1"/>
-        <v>6.6879668302089702E-3</v>
+        <v>5.2209457884142239E-3</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1094,7 +1190,7 @@
       </c>
       <c r="D13" s="3">
         <f t="shared" si="1"/>
-        <v>1.8919906164406954E-2</v>
+        <v>1.4769780848803397E-2</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -1111,7 +1207,7 @@
       </c>
       <c r="D14" s="3">
         <f t="shared" si="1"/>
-        <v>2.6839866884391259E-2</v>
+        <v>2.0952479808767608E-2</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -1128,7 +1224,7 @@
       </c>
       <c r="D15" s="3">
         <f t="shared" si="1"/>
-        <v>5.2799738133228712E-3</v>
+        <v>4.121799306642809E-3</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1144,7 +1240,7 @@
       </c>
       <c r="D16" s="3">
         <f t="shared" si="1"/>
-        <v>1.1175944571533409E-2</v>
+        <v>8.7244751990606106E-3</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -1160,7 +1256,7 @@
       </c>
       <c r="D17" s="3">
         <f t="shared" si="1"/>
-        <v>1.4959925804414803E-2</v>
+        <v>1.1678431368821292E-2</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -1176,7 +1272,7 @@
       </c>
       <c r="D18" s="3">
         <f t="shared" si="1"/>
-        <v>9.5919524275365486E-3</v>
+        <v>7.4879354070677695E-3</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -1192,7 +1288,7 @@
       </c>
       <c r="D19" s="3">
         <f t="shared" si="1"/>
-        <v>5.2799738133228712E-3</v>
+        <v>4.121799306642809E-3</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -1205,7 +1301,7 @@
       </c>
       <c r="D20" s="3">
         <f t="shared" si="1"/>
-        <v>1.6602282235664005E-2</v>
+        <v>1.296053310623939E-2</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -1217,12 +1313,12 @@
         <v>4.5299999999999993E-2</v>
       </c>
       <c r="C21" s="5">
-        <f>B21*$E$25</f>
+        <f>B21*$E$26</f>
         <v>39940.103999999999</v>
       </c>
       <c r="D21" s="3">
         <f t="shared" si="1"/>
-        <v>3.9863802290587669E-2</v>
+        <v>3.11195847651532E-2</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -1233,12 +1329,12 @@
         <v>6.1999999999999998E-3</v>
       </c>
       <c r="C22" s="5">
-        <f>B22*$E$25</f>
+        <f>B22*$E$26</f>
         <v>5466.4160000000002</v>
       </c>
       <c r="D22" s="3">
         <f t="shared" si="1"/>
-        <v>5.4559729404336328E-3</v>
+        <v>4.2591926168642352E-3</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -1249,12 +1345,12 @@
         <v>0.10299999999999999</v>
       </c>
       <c r="C23" s="5">
-        <f>B23*$E$25</f>
+        <f>B23*$E$26</f>
         <v>90813.040000000008</v>
       </c>
       <c r="D23" s="3">
         <f t="shared" si="1"/>
-        <v>9.0639550462042612E-2</v>
+        <v>7.0757554764034877E-2</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -1267,46 +1363,59 @@
       </c>
       <c r="D24" s="3">
         <f t="shared" si="1"/>
-        <v>0.1034020822105241</v>
+        <v>8.072059556154064E-2</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>30</v>
+      <c r="A25" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="4">
-        <f>F4*E26</f>
-        <v>881680.00000000012</v>
+      <c r="C25" s="1">
+        <v>281525.43</v>
+      </c>
+      <c r="D25" s="3">
+        <f>C25/($E$26+$C$24+$F$8+$C$25)</f>
+        <v>0.21935232022508513</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>33</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B26" s="3"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="7">
-        <v>1.1021000000000001</v>
+      <c r="E26" s="4">
+        <f>F4*E27</f>
+        <v>881680.00000000012</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="6"/>
-      <c r="E27" s="8">
-        <f>E25+C20+C24</f>
-        <v>1001914.0600000002</v>
+        <v>33</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="7">
+        <v>1.1021000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="E28" s="8">
+        <f>E26+C20+C24+C25</f>
+        <v>1283439.4900000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E28" s="9">
-        <f>E27/F2</f>
-        <v>1.0930360366491292</v>
+      <c r="E29" s="9">
+        <f>E28/F2</f>
+        <v>1.07117583319396</v>
       </c>
     </row>
   </sheetData>
@@ -1318,10 +1427,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="A1:F28"/>
+      <selection activeCell="D2" sqref="D2:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1338,10 +1447,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>34</v>
@@ -1359,16 +1468,16 @@
         <v>9.1999999999999998E-3</v>
       </c>
       <c r="C2" s="5">
-        <f t="shared" ref="C2:C19" si="0">B2*$E$25</f>
+        <f t="shared" ref="C2:C19" si="0">B2*$E$26</f>
         <v>8196.0959999999995</v>
       </c>
       <c r="D2" s="3">
-        <f t="shared" ref="D2:D24" si="1">C2/($E$25+$C$24+$F$8)</f>
-        <v>8.1060053699579648E-3</v>
+        <f>C2/($E$26+$C$24+$F$8+$C$25)</f>
+        <v>6.3405892079004952E-3</v>
       </c>
       <c r="F2" s="1">
-        <f>F4+F6+F8</f>
-        <v>916634.06</v>
+        <f>F4+F6+F8+F10</f>
+        <v>1198159.49</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1383,8 +1492,8 @@
         <v>59956.223999999987</v>
       </c>
       <c r="D3" s="3">
-        <f t="shared" si="1"/>
-        <v>5.929719145632293E-2</v>
+        <f t="shared" ref="D3:D24" si="1">C3/($E$26+$C$24+$F$8+$C$25)</f>
+        <v>4.6382788444750349E-2</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>25</v>
@@ -1403,7 +1512,7 @@
       </c>
       <c r="D4" s="3">
         <f t="shared" si="1"/>
-        <v>0.23014006550358918</v>
+        <v>0.18001759794604447</v>
       </c>
       <c r="F4" s="1">
         <v>800000</v>
@@ -1422,7 +1531,7 @@
       </c>
       <c r="D5" s="3">
         <f t="shared" si="1"/>
-        <v>6.2997759125216782E-2</v>
+        <v>4.927740525705275E-2</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>26</v>
@@ -1441,7 +1550,7 @@
       </c>
       <c r="D6" s="3">
         <f t="shared" si="1"/>
-        <v>3.8327307999257765E-2</v>
+        <v>2.9979959841703423E-2</v>
       </c>
       <c r="F6" s="1">
         <v>100000</v>
@@ -1460,7 +1569,7 @@
       </c>
       <c r="D7" s="3">
         <f t="shared" si="1"/>
-        <v>8.114816245360093E-2</v>
+        <v>6.3474811526916905E-2</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>27</v>
@@ -1496,7 +1605,10 @@
       </c>
       <c r="D9" s="3">
         <f t="shared" si="1"/>
-        <v>9.7536390701559436E-2</v>
+        <v>7.6293828838541827E-2</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1512,7 +1624,10 @@
       </c>
       <c r="D10" s="3">
         <f t="shared" si="1"/>
-        <v>5.7535016375897294E-2</v>
+        <v>4.5004399486511117E-2</v>
+      </c>
+      <c r="F10" s="1">
+        <v>281525.43</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1528,7 +1643,7 @@
       </c>
       <c r="D11" s="3">
         <f t="shared" si="1"/>
-        <v>6.4848042959663718E-2</v>
+        <v>5.0724713663203962E-2</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1544,7 +1659,7 @@
       </c>
       <c r="D12" s="3">
         <f t="shared" si="1"/>
-        <v>1.0573050482553867E-2</v>
+        <v>8.2703337494354282E-3</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1560,7 +1675,7 @@
       </c>
       <c r="D13" s="3">
         <f t="shared" si="1"/>
-        <v>1.718120703415003E-2</v>
+        <v>1.3439292342832568E-2</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -1576,7 +1691,7 @@
       </c>
       <c r="D14" s="3">
         <f t="shared" si="1"/>
-        <v>3.4538631576342627E-2</v>
+        <v>2.701642358148906E-2</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -1592,7 +1707,7 @@
       </c>
       <c r="D15" s="3">
         <f t="shared" si="1"/>
-        <v>7.753570353872836E-3</v>
+        <v>6.064911416252647E-3</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1608,7 +1723,7 @@
       </c>
       <c r="D16" s="3">
         <f t="shared" si="1"/>
-        <v>1.6564445756001057E-2</v>
+        <v>1.2956856207448837E-2</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -1624,7 +1739,7 @@
       </c>
       <c r="D17" s="3">
         <f t="shared" si="1"/>
-        <v>1.4009291889383874E-2</v>
+        <v>1.0958192218001941E-2</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -1640,7 +1755,7 @@
       </c>
       <c r="D18" s="3">
         <f t="shared" si="1"/>
-        <v>1.4185509397426438E-2</v>
+        <v>1.1096031113825865E-2</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -1656,7 +1771,7 @@
       </c>
       <c r="D19" s="3">
         <f t="shared" si="1"/>
-        <v>7.3130265837664243E-3</v>
+        <v>5.7203141766928372E-3</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -1669,7 +1784,7 @@
       </c>
       <c r="D20" s="3">
         <f t="shared" si="1"/>
-        <v>1.6451220152155735E-2</v>
+        <v>1.2868290137105436E-2</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -1678,7 +1793,7 @@
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="5">
-        <f>B21*$E$25</f>
+        <f>B21*$E$26</f>
         <v>0</v>
       </c>
       <c r="D21" s="3">
@@ -1692,7 +1807,7 @@
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="5">
-        <f>B22*$E$25</f>
+        <f>B22*$E$26</f>
         <v>0</v>
       </c>
       <c r="D22" s="3">
@@ -1708,12 +1823,12 @@
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="C23" s="5">
-        <f>B23*$E$25</f>
+        <f>B23*$E$26</f>
         <v>59688.959999999999</v>
       </c>
       <c r="D23" s="3">
         <f t="shared" si="1"/>
-        <v>5.9032865194259099E-2</v>
+        <v>4.6176030101014474E-2</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -1726,46 +1841,59 @@
       </c>
       <c r="D24" s="3">
         <f t="shared" si="1"/>
-        <v>0.10246123963502199</v>
+        <v>8.0146089301356555E-2</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>41</v>
+      <c r="A25" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="4">
-        <f>F4*E26</f>
-        <v>890879.99999999988</v>
+      <c r="C25" s="1">
+        <v>281525.43</v>
+      </c>
+      <c r="D25" s="3">
+        <f>C25/($E$26+$C$24+$F$8+$C$25)</f>
+        <v>0.21779114144191897</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B26" s="3"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="7">
-        <v>1.1135999999999999</v>
+      <c r="E26" s="4">
+        <f>F4*E27</f>
+        <v>890879.99999999988</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="6"/>
-      <c r="E27" s="8">
-        <f>E25+C20+C24</f>
-        <v>1011114.0599999999</v>
+        <v>41</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="7">
+        <v>1.1135999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="E28" s="8">
+        <f>E26+C20+C24+C25</f>
+        <v>1292639.49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E28" s="9">
-        <f>E27/F2</f>
-        <v>1.1030727573007704</v>
+      <c r="E29" s="9">
+        <f>E28/F2</f>
+        <v>1.0788542767373983</v>
       </c>
     </row>
   </sheetData>
@@ -1777,10 +1905,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1797,10 +1925,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>34</v>
@@ -1819,16 +1947,16 @@
         <v>7.7899999999999997E-2</v>
       </c>
       <c r="C2" s="5">
-        <f t="shared" ref="C2:C19" si="0">B2*$E$25</f>
+        <f t="shared" ref="C2:C19" si="0">B2*$E$26</f>
         <v>75226.471999999994</v>
       </c>
       <c r="D2" s="3">
-        <f t="shared" ref="D2:D24" si="1">C2/($E$25+$C$24+$F$8)</f>
-        <v>6.9274793255738848E-2</v>
+        <f>C2/($E$26+$C$24+$F$8+$C$25)</f>
+        <v>5.5012651419040118E-2</v>
       </c>
       <c r="F2" s="1">
-        <f>F4+F6+F8</f>
-        <v>916634.06</v>
+        <f>F4+F6+F8+F10</f>
+        <v>1198159.49</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1844,8 +1972,8 @@
         <v>52532.992000000006</v>
       </c>
       <c r="D3" s="3">
-        <f t="shared" si="1"/>
-        <v>4.8376749077178358E-2</v>
+        <f t="shared" ref="D3:D24" si="1">C3/($E$26+$C$24+$F$8+$C$25)</f>
+        <v>3.8417050541666019E-2</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>25</v>
@@ -1864,7 +1992,7 @@
       </c>
       <c r="D4" s="3">
         <f t="shared" si="1"/>
-        <v>0.14041707131041289</v>
+        <v>0.11150831398031368</v>
       </c>
       <c r="F4" s="1">
         <v>800000</v>
@@ -1902,7 +2030,7 @@
       </c>
       <c r="D6" s="3">
         <f t="shared" si="1"/>
-        <v>2.5789075794819344E-2</v>
+        <v>2.0479677678461664E-2</v>
       </c>
       <c r="F6" s="1">
         <v>100000</v>
@@ -1921,7 +2049,7 @@
       </c>
       <c r="D7" s="3">
         <f t="shared" si="1"/>
-        <v>8.3414321019105314E-2</v>
+        <v>6.624116435309324E-2</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>27</v>
@@ -1940,7 +2068,7 @@
       </c>
       <c r="D8" s="3">
         <f t="shared" si="1"/>
-        <v>6.6162318590846855E-2</v>
+        <v>5.2540966181984394E-2</v>
       </c>
       <c r="F8" s="1">
         <v>16634.060000000001</v>
@@ -1959,7 +2087,10 @@
       </c>
       <c r="D9" s="3">
         <f t="shared" si="1"/>
-        <v>6.0293080651336255E-2</v>
+        <v>4.7880074020679335E-2</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1975,7 +2106,10 @@
       </c>
       <c r="D10" s="3">
         <f t="shared" si="1"/>
-        <v>2.8723694764574651E-2</v>
+        <v>2.28101237591142E-2</v>
+      </c>
+      <c r="F10" s="1">
+        <v>281525.43</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1991,8 +2125,9 @@
       </c>
       <c r="D11" s="3">
         <f t="shared" si="1"/>
-        <v>5.0155306028545205E-2</v>
-      </c>
+        <v>3.9829442105697853E-2</v>
+      </c>
+      <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
@@ -2007,7 +2142,7 @@
       </c>
       <c r="D12" s="3">
         <f t="shared" si="1"/>
-        <v>6.9363721103307199E-3</v>
+        <v>5.5083270997241711E-3</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -2023,7 +2158,7 @@
       </c>
       <c r="D13" s="3">
         <f t="shared" si="1"/>
-        <v>1.7963425208805197E-2</v>
+        <v>1.4265154796721573E-2</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -2039,7 +2174,7 @@
       </c>
       <c r="D14" s="3">
         <f t="shared" si="1"/>
-        <v>2.4633013776430887E-2</v>
+        <v>1.9561623161840968E-2</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -2055,7 +2190,7 @@
       </c>
       <c r="D15" s="3">
         <f t="shared" si="1"/>
-        <v>6.6073390743278532E-2</v>
+        <v>5.2470346603782816E-2</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -2071,7 +2206,7 @@
       </c>
       <c r="D16" s="3">
         <f t="shared" si="1"/>
-        <v>1.0493486013064421E-2</v>
+        <v>8.3331102277878488E-3</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -2082,12 +2217,12 @@
         <v>2.46E-2</v>
       </c>
       <c r="C17" s="5">
-        <f>B17*$E$25</f>
+        <f>B17*$E$26</f>
         <v>23755.727999999999</v>
       </c>
       <c r="D17" s="3">
         <f t="shared" si="1"/>
-        <v>2.1876250501812269E-2</v>
+        <v>1.7372416237591618E-2</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -2103,7 +2238,7 @@
       </c>
       <c r="D18" s="3">
         <f t="shared" si="1"/>
-        <v>1.6629507495280058E-2</v>
+        <v>1.3205861123697694E-2</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -2119,7 +2254,7 @@
       </c>
       <c r="D19" s="3">
         <f t="shared" si="1"/>
-        <v>4.8021037686904987E-3</v>
+        <v>3.813457222885965E-3</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -2132,7 +2267,7 @@
       </c>
       <c r="D20" s="3">
         <f t="shared" si="1"/>
-        <v>1.5318026179714443E-2</v>
+        <v>1.2164384692444418E-2</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -2144,12 +2279,12 @@
         <v>6.409999999999999E-2</v>
       </c>
       <c r="C21" s="5">
-        <f>B21*$E$25</f>
+        <f>B21*$E$26</f>
         <v>61900.087999999989</v>
       </c>
       <c r="D21" s="3">
         <f t="shared" si="1"/>
-        <v>5.7002750291307566E-2</v>
+        <v>4.5267149627220428E-2</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -2160,12 +2295,12 @@
         <v>6.1000000000000004E-3</v>
       </c>
       <c r="C22" s="5">
-        <f>B22*$E$25</f>
+        <f>B22*$E$26</f>
         <v>5890.6480000000001</v>
       </c>
       <c r="D22" s="3">
         <f t="shared" si="1"/>
-        <v>5.4245987016688958E-3</v>
+        <v>4.3077942702971087E-3</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -2176,12 +2311,12 @@
         <v>9.5399999999999999E-2</v>
       </c>
       <c r="C23" s="5">
-        <f>B23*$E$25</f>
+        <f>B23*$E$26</f>
         <v>92125.872000000003</v>
       </c>
       <c r="D23" s="3">
         <f t="shared" si="1"/>
-        <v>8.4837166580198797E-2</v>
+        <v>6.7371077604318708E-2</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -2194,51 +2329,65 @@
       </c>
       <c r="D24" s="3">
         <f t="shared" si="1"/>
-        <v>9.5403498136859929E-2</v>
+        <v>7.5762036095652033E-2</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>46</v>
+      <c r="A25" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="4">
-        <f>F4*E26</f>
-        <v>965680</v>
+      <c r="C25" s="1">
+        <v>281525.43</v>
+      </c>
+      <c r="D25" s="3">
+        <f>C25/($E$26+$C$24+$F$8+$C$25)</f>
+        <v>0.20587779719598415</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>47</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="B26" s="3"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="7">
-        <v>1.2071000000000001</v>
+      <c r="E26" s="4">
+        <f>F4*E27</f>
+        <v>965680</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="6"/>
-      <c r="E27" s="8">
-        <f>E25+C20+C24</f>
-        <v>1085914.06</v>
+        <v>46</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="7">
+        <v>1.2071000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="E28" s="8">
+        <f>E26+C20+C24+C25</f>
+        <v>1367439.49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E28" s="9">
-        <f>E27/F2</f>
-        <v>1.1846756599902037</v>
+      <c r="E29" s="9">
+        <f>E28/F2</f>
+        <v>1.1412833611992674</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -2246,8 +2395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2264,13 +2413,13 @@
         <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -2278,17 +2427,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>6.247969012432064E-3</v>
+        <v>4.8774625128606567E-3</v>
       </c>
       <c r="C2" s="3">
-        <f t="shared" ref="C2:C24" si="0">B2/($E$25+$C$24+$F$8)</f>
-        <v>6.0978854391065394E-2</v>
+        <v>6.3405892079004952E-3</v>
       </c>
       <c r="D2" s="3">
-        <v>7.7600958260018154E-3</v>
+        <v>6.0238104269632305E-3</v>
       </c>
       <c r="E2" s="3">
-        <v>6.9274793255738848E-2</v>
+        <v>5.5012651419040118E-2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2296,17 +2444,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>4.1359794871029157E-2</v>
+        <v>3.2287427902035336E-2</v>
       </c>
       <c r="C3" s="3">
-        <f t="shared" si="0"/>
-        <v>0.40366283892677091</v>
+        <v>4.6382788444750349E-2</v>
       </c>
       <c r="D3" s="3">
-        <v>5.2275371830770384E-2</v>
+        <v>4.0579000178380127E-2</v>
       </c>
       <c r="E3" s="3">
-        <v>4.8376749077178358E-2</v>
+        <v>3.8417050541666019E-2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2314,17 +2461,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>0.23346284211242629</v>
+        <v>0.18225222600872287</v>
       </c>
       <c r="C4" s="3">
-        <f t="shared" si="0"/>
-        <v>2.2785478971760069</v>
+        <v>0.18001759794604447</v>
       </c>
       <c r="D4" s="3">
-        <v>0.19196293281744362</v>
+        <v>0.14901211817791904</v>
       </c>
       <c r="E4" s="3">
-        <v>0.14041707131041289</v>
+        <v>0.11150831398031368</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2332,14 +2478,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>6.0631699289657635E-2</v>
+        <v>4.7331995371281584E-2</v>
       </c>
       <c r="C5" s="3">
-        <f t="shared" si="0"/>
-        <v>0.59175254472456418</v>
+        <v>4.927740525705275E-2</v>
       </c>
       <c r="D5" s="3">
-        <v>3.9566431373305767E-2</v>
+        <v>3.0713626121166484E-2</v>
       </c>
       <c r="E5" s="3">
         <v>0</v>
@@ -2350,17 +2495,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="3">
-        <v>1.935990398218386E-2</v>
+        <v>1.5113264124356965E-2</v>
       </c>
       <c r="C6" s="3">
-        <f t="shared" si="0"/>
-        <v>0.18894856290189277</v>
+        <v>2.9979959841703423E-2</v>
       </c>
       <c r="D6" s="3">
-        <v>2.3968775722744012E-2</v>
+        <v>1.8605873478575098E-2</v>
       </c>
       <c r="E6" s="3">
-        <v>2.5789075794819344E-2</v>
+        <v>2.0479677678461664E-2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -2368,17 +2512,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="3">
-        <v>7.8583610254955402E-2</v>
+        <v>6.1346113013867137E-2</v>
       </c>
       <c r="C7" s="3">
-        <f t="shared" si="0"/>
-        <v>0.76695939396086477</v>
+        <v>6.3474811526916905E-2</v>
       </c>
       <c r="D7" s="3">
-        <v>7.6676142983394008E-2</v>
+        <v>5.9520212115816762E-2</v>
       </c>
       <c r="E7" s="3">
-        <v>8.3414321019105314E-2</v>
+        <v>6.624116435309324E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -2386,17 +2529,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="3">
-        <v>6.5647674412314366E-2</v>
+        <v>5.1247704712592254E-2</v>
       </c>
       <c r="C8" s="3">
-        <f t="shared" si="0"/>
-        <v>0.64070739965823642</v>
+        <v>0</v>
       </c>
       <c r="D8" s="3">
-        <v>6.5210295796365378E-2</v>
+        <v>5.061979498336807E-2</v>
       </c>
       <c r="E8" s="3">
-        <v>6.6162318590846855E-2</v>
+        <v>5.2540966181984394E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2404,17 +2546,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="3">
-        <v>6.1335695798100678E-2</v>
+        <v>4.7881568612167288E-2</v>
       </c>
       <c r="C9" s="3">
-        <f t="shared" si="0"/>
-        <v>0.59862340155736016</v>
+        <v>7.6293828838541827E-2</v>
       </c>
       <c r="D9" s="3">
-        <v>5.3433519423410285E-2</v>
+        <v>4.1478017626222788E-2</v>
       </c>
       <c r="E9" s="3">
-        <v>6.0293080651336255E-2</v>
+        <v>4.7880074020679335E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -2422,17 +2563,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="3">
-        <v>2.4815876922617493E-2</v>
+        <v>1.9372456741221202E-2</v>
       </c>
       <c r="C10" s="3">
-        <f t="shared" si="0"/>
-        <v>0.24219770335606255</v>
+        <v>4.5004399486511117E-2</v>
       </c>
       <c r="D10" s="3">
-        <v>3.1054181482929741E-2</v>
+        <v>2.4105952608327607E-2</v>
       </c>
       <c r="E10" s="3">
-        <v>2.8723694764574651E-2</v>
+        <v>2.28101237591142E-2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -2440,17 +2580,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="3">
-        <v>5.3855732895893293E-2</v>
+        <v>4.2042352927756654E-2</v>
       </c>
       <c r="C11" s="3">
-        <f t="shared" si="0"/>
-        <v>0.52562054770890176</v>
+        <v>5.0724713663203962E-2</v>
       </c>
       <c r="D11" s="3">
-        <v>4.7412965124601955E-2</v>
+        <v>3.6804534389103361E-2</v>
       </c>
       <c r="E11" s="3">
-        <v>5.0155306028545205E-2</v>
+        <v>3.9829442105697853E-2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -2458,17 +2597,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="3">
-        <v>6.6879668302089702E-3</v>
+        <v>5.2209457884142239E-3</v>
       </c>
       <c r="C12" s="3">
-        <f t="shared" si="0"/>
-        <v>6.5273139911562958E-2</v>
+        <v>8.2703337494354282E-3</v>
       </c>
       <c r="D12" s="3">
-        <v>9.2501867200234424E-3</v>
+        <v>7.1805004042254181E-3</v>
       </c>
       <c r="E12" s="3">
-        <v>6.9363721103307199E-3</v>
+        <v>5.5083270997241711E-3</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -2476,17 +2614,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="3">
-        <v>1.8919906164406954E-2</v>
+        <v>1.4769780848803397E-2</v>
       </c>
       <c r="C13" s="3">
-        <f t="shared" si="0"/>
-        <v>0.1846542773813952</v>
+        <v>1.3439292342832568E-2</v>
       </c>
       <c r="D13" s="3">
-        <v>2.3433273509199267E-2</v>
+        <v>1.8190187398152726E-2</v>
       </c>
       <c r="E13" s="3">
-        <v>1.7963425208805197E-2</v>
+        <v>1.4265154796721573E-2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -2494,17 +2631,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="3">
-        <v>2.6839866884391259E-2</v>
+        <v>2.0952479808767608E-2</v>
       </c>
       <c r="C14" s="3">
-        <f t="shared" si="0"/>
-        <v>0.26195141675035133</v>
+        <v>2.701642358148906E-2</v>
       </c>
       <c r="D14" s="3">
-        <v>3.5227057415285472E-2</v>
+        <v>2.7345166931883109E-2</v>
       </c>
       <c r="E14" s="3">
-        <v>2.4633013776430887E-2</v>
+        <v>1.9561623161840968E-2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -2512,17 +2648,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="3">
-        <v>5.2799738133228712E-3</v>
+        <v>4.121799306642809E-3</v>
       </c>
       <c r="C15" s="3">
-        <f t="shared" si="0"/>
-        <v>5.1531426245970756E-2</v>
+        <v>6.064911416252647E-3</v>
       </c>
       <c r="D15" s="3">
-        <v>6.957011150093749E-3</v>
+        <v>5.4004122173354685E-3</v>
       </c>
       <c r="E15" s="3">
-        <v>6.6073390743278532E-2</v>
+        <v>5.2470346603782816E-2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -2530,17 +2665,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="3">
-        <v>1.1175944571533409E-2</v>
+        <v>8.7244751990606106E-3</v>
       </c>
       <c r="C16" s="3">
-        <f t="shared" si="0"/>
-        <v>0.10907485222063809</v>
+        <v>1.2956856207448837E-2</v>
       </c>
       <c r="D16" s="3">
-        <v>1.4003608254450848E-2</v>
+        <v>1.0870365947752878E-2</v>
       </c>
       <c r="E16" s="3">
-        <v>1.0493486013064421E-2</v>
+        <v>8.3331102277878488E-3</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -2548,17 +2682,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="3">
-        <v>1.4959925804414803E-2</v>
+        <v>1.1678431368821292E-2</v>
       </c>
       <c r="C17" s="3">
-        <f t="shared" si="0"/>
-        <v>0.14600570769691715</v>
+        <v>1.0958192218001941E-2</v>
       </c>
       <c r="D17" s="3">
-        <v>1.6145760200855695E-2</v>
+        <v>1.2533221345447303E-2</v>
       </c>
       <c r="E17" s="3">
-        <v>2.1876250501812269E-2</v>
+        <v>1.7372416237591618E-2</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -2566,17 +2699,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="3">
-        <v>9.5919524275365486E-3</v>
+        <v>7.4879354070677695E-3</v>
       </c>
       <c r="C18" s="3">
-        <f t="shared" si="0"/>
-        <v>9.3615424346846873E-2</v>
+        <v>1.1096031113825865E-2</v>
       </c>
       <c r="D18" s="3">
-        <v>1.2778350407881323E-2</v>
+        <v>9.919253853601491E-3</v>
       </c>
       <c r="E18" s="3">
-        <v>1.6629507495280058E-2</v>
+        <v>1.3205861123697694E-2</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -2584,17 +2716,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="3">
-        <v>5.2799738133228712E-3</v>
+        <v>4.121799306642809E-3</v>
       </c>
       <c r="C19" s="3">
-        <f t="shared" si="0"/>
-        <v>5.1531426245970756E-2</v>
+        <v>5.7203141766928372E-3</v>
       </c>
       <c r="D19" s="3">
-        <v>6.8855979085149666E-3</v>
+        <v>5.344977356878707E-3</v>
       </c>
       <c r="E19" s="3">
-        <v>4.8021037686904987E-3</v>
+        <v>3.813457222885965E-3</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -2602,17 +2733,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="3">
-        <v>1.6602282235664005E-2</v>
+        <v>1.296053310623939E-2</v>
       </c>
       <c r="C20" s="3">
-        <f t="shared" si="0"/>
-        <v>0.16203475865413233</v>
+        <v>1.2868290137105436E-2</v>
       </c>
       <c r="D20" s="3">
-        <v>1.6983227894463923E-2</v>
+        <v>1.3183309532257914E-2</v>
       </c>
       <c r="E20" s="3">
-        <v>1.5318026179714443E-2</v>
+        <v>1.2164384692444418E-2</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -2620,17 +2750,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="3">
-        <v>3.9863802290587669E-2</v>
+        <v>3.11195847651532E-2</v>
       </c>
       <c r="C21" s="3">
-        <f t="shared" si="0"/>
-        <v>0.38906226815707912</v>
+        <v>0</v>
       </c>
       <c r="D21" s="3">
-        <v>5.1327283625696982E-2</v>
+        <v>3.9843042305763951E-2</v>
       </c>
       <c r="E21" s="3">
-        <v>5.7002750291307566E-2</v>
+        <v>4.5267149627220428E-2</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -2638,17 +2767,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="3">
-        <v>5.4559729404336328E-3</v>
+        <v>4.2591926168642352E-3</v>
       </c>
       <c r="C22" s="3">
-        <f t="shared" si="0"/>
-        <v>5.3249140454169772E-2</v>
+        <v>0</v>
       </c>
       <c r="D22" s="3">
-        <v>7.1379410488239051E-3</v>
+        <v>5.5408598915598281E-3</v>
       </c>
       <c r="E22" s="3">
-        <v>5.4245987016688958E-3</v>
+        <v>4.3077942702971087E-3</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -2656,17 +2784,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="3">
-        <v>9.0639550462042612E-2</v>
+        <v>7.0757554764034877E-2</v>
       </c>
       <c r="C23" s="3">
-        <f t="shared" si="0"/>
-        <v>0.88462281722249791</v>
+        <v>4.6176030101014474E-2</v>
       </c>
       <c r="D23" s="3">
-        <v>0.10466174234531715</v>
+        <v>8.1627233005555716E-2</v>
       </c>
       <c r="E23" s="3">
-        <v>8.4837166580198797E-2</v>
+        <v>6.7371077604318708E-2</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -2674,39 +2801,50 @@
         <v>23</v>
       </c>
       <c r="B24" s="3">
-        <v>0.1034020822105241</v>
+        <v>8.072059556154064E-2</v>
       </c>
       <c r="C24" s="3">
-        <v>0.10246123963502199</v>
+        <v>8.0146089301356555E-2</v>
       </c>
       <c r="D24" s="3">
-        <v>0.10588824713842634</v>
+        <v>8.2196243642773129E-2</v>
       </c>
       <c r="E24" s="3">
-        <v>9.5403498136859929E-2</v>
+        <v>7.5762036095652033E-2</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="3"/>
+      <c r="A25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0.21935232022508513</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.21779114144191897</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.22336228606096978</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0.20587779719598415</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B26" s="10">
-        <v>1.0930360366491292</v>
-      </c>
-      <c r="C26" s="12">
-        <v>1.1031</v>
-      </c>
-      <c r="D26" s="11">
-        <v>1.0673999999999999</v>
-      </c>
-      <c r="E26" s="7">
-        <v>1.2071000000000001</v>
+        <v>7.1199999999999999E-2</v>
+      </c>
+      <c r="C26" s="10">
+        <v>7.8899999999999998E-2</v>
+      </c>
+      <c r="D26" s="10">
+        <v>5.1900000000000002E-2</v>
+      </c>
+      <c r="E26" s="10">
+        <v>0.14130000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Portfolio/虚拟组合情况.xlsx
+++ b/Portfolio/虚拟组合情况.xlsx
@@ -1,36 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="26812"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20342"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klq26/github/finance-data/Portfolio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\finance-data\Portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5F0564-80FF-4261-B892-4A483A65E508}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16660" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16665" tabRatio="658" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="且慢组合" sheetId="1" r:id="rId1"/>
     <sheet name="雪球组合" sheetId="3" r:id="rId2"/>
     <sheet name="ETF计划" sheetId="4" r:id="rId3"/>
-    <sheet name="模拟组合与实盘对比" sheetId="2" r:id="rId4"/>
+    <sheet name="养老金计划" sheetId="5" r:id="rId4"/>
+    <sheet name="模拟组合与实盘对比" sheetId="2" r:id="rId5"/>
+    <sheet name="实盘仓位变化" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="64">
   <si>
     <t>品种</t>
     <rPh sb="0" eb="1">
@@ -381,11 +384,63 @@
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>养老金占比</t>
+  </si>
+  <si>
+    <t>养老金市值</t>
+  </si>
+  <si>
+    <t>养老金总市值</t>
+  </si>
+  <si>
+    <t>养老金收益率</t>
+  </si>
+  <si>
+    <t>养老金计划</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A股</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>海外市场</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可转债</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>债券</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A股投入累计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A股投入占比</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>万德全A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="0.0000_);[Red]\(0.0000\)"/>
@@ -558,7 +613,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -590,6 +645,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -930,21 +988,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -1426,20 +1484,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D25"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -1899,25 +1957,25 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.375" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="11.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -2392,28 +2450,468 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0BCC24A-A7F3-4DD4-B790-DD51E3A9F6A4}">
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="C2" s="5">
+        <v>471.35</v>
+      </c>
+      <c r="D2" s="3">
+        <f>C2/($E$26+$C$24+$F$8+$C$25)</f>
+        <v>5.8261235543618055E-3</v>
+      </c>
+      <c r="F2" s="1">
+        <f>F4+F6+F8+F10</f>
+        <v>72000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>6.7299999999999999E-2</v>
+      </c>
+      <c r="C3" s="5">
+        <v>4256.13</v>
+      </c>
+      <c r="D3" s="3">
+        <f t="shared" ref="D3:D24" si="0">C3/($E$26+$C$24+$F$8+$C$25)</f>
+        <v>5.2607911834997155E-2</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.26119999999999999</v>
+      </c>
+      <c r="C4" s="5">
+        <f>10672.24+3455.77</f>
+        <v>14128.01</v>
+      </c>
+      <c r="D4" s="3">
+        <f t="shared" si="0"/>
+        <v>0.17462932393605415</v>
+      </c>
+      <c r="F4" s="1">
+        <v>72000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>7.1499999999999994E-2</v>
+      </c>
+      <c r="C5" s="5">
+        <v>897.58</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1094541168821618E-2</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>4.3499999999999997E-2</v>
+      </c>
+      <c r="C6" s="5">
+        <f>2108.22+466.02</f>
+        <v>2574.2399999999998</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" si="0"/>
+        <v>3.1818903783982881E-2</v>
+      </c>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>9.2100000000000001E-2</v>
+      </c>
+      <c r="C7" s="5">
+        <v>7939.98</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="0"/>
+        <v>9.8142154448205454E-2</v>
+      </c>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="5">
+        <v>6132.17</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="0"/>
+        <v>7.5796711735124284E-2</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.11070000000000001</v>
+      </c>
+      <c r="C9" s="5">
+        <v>5459.62</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="0"/>
+        <v>6.7483654778539931E-2</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>6.5299999999999997E-2</v>
+      </c>
+      <c r="C10" s="5">
+        <v>3058.78</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="0"/>
+        <v>3.7808062385935724E-2</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>7.3599999999999999E-2</v>
+      </c>
+      <c r="C11" s="5">
+        <v>3672.78</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="0"/>
+        <v>4.5397411834070124E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1.2E-2</v>
+      </c>
+      <c r="C12" s="5">
+        <v>560.74</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="0"/>
+        <v>6.9310290057766812E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1.95E-2</v>
+      </c>
+      <c r="C13" s="5">
+        <v>976.96</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="0"/>
+        <v>1.2075717975324725E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <v>3.9199999999999999E-2</v>
+      </c>
+      <c r="C14" s="5">
+        <v>554.64</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" si="0"/>
+        <v>6.8556299314548241E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="C15" s="5">
+        <v>424.28</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="0"/>
+        <v>5.2443146316847912E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1.8800000000000001E-2</v>
+      </c>
+      <c r="C16" s="5">
+        <v>863.9</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0678239394533072E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1638.91</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="0"/>
+        <v>2.0257753589644864E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1.61E-2</v>
+      </c>
+      <c r="C18" s="5">
+        <v>790.74</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" si="0"/>
+        <v>9.7739449228302824E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3">
+        <v>8.3000000000000001E-3</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="5">
+        <f>1813.08+456.89+432.07</f>
+        <v>2702.04</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="0"/>
+        <v>3.3398576193545713E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="C23" s="5">
+        <v>23800</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="0"/>
+        <v>0.29417999489511182</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="3">
+        <f>C25/($E$26+$C$24+$F$8+$C$25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="4">
+        <f>SUM(C2:C25)</f>
+        <v>80902.850000000006</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="7">
+        <f>E26/F2</f>
+        <v>1.1236506944444444</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="E28" s="8">
+        <f>E26+C20+C24+C25</f>
+        <v>80902.850000000006</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="9">
+        <f>E28/F2</f>
+        <v>1.1236506944444444</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:F26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>29</v>
@@ -2421,16 +2919,19 @@
       <c r="E1" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3">
+        <v>6.3405892079004952E-3</v>
+      </c>
+      <c r="C2" s="3">
         <v>4.8774625128606567E-3</v>
-      </c>
-      <c r="C2" s="3">
-        <v>6.3405892079004952E-3</v>
       </c>
       <c r="D2" s="3">
         <v>6.0238104269632305E-3</v>
@@ -2438,16 +2939,19 @@
       <c r="E2" s="3">
         <v>5.5012651419040118E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" s="3">
+        <v>5.8261235543618055E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="3">
+        <v>4.6382788444750349E-2</v>
+      </c>
+      <c r="C3" s="3">
         <v>3.2287427902035336E-2</v>
-      </c>
-      <c r="C3" s="3">
-        <v>4.6382788444750349E-2</v>
       </c>
       <c r="D3" s="3">
         <v>4.0579000178380127E-2</v>
@@ -2455,16 +2959,19 @@
       <c r="E3" s="3">
         <v>3.8417050541666019E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" s="3">
+        <v>5.2607911834997155E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="3">
+        <v>0.18001759794604447</v>
+      </c>
+      <c r="C4" s="3">
         <v>0.18225222600872287</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0.18001759794604447</v>
       </c>
       <c r="D4" s="3">
         <v>0.14901211817791904</v>
@@ -2472,16 +2979,19 @@
       <c r="E4" s="3">
         <v>0.11150831398031368</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" s="3">
+        <v>0.17462932393605415</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="3">
+        <v>4.927740525705275E-2</v>
+      </c>
+      <c r="C5" s="3">
         <v>4.7331995371281584E-2</v>
-      </c>
-      <c r="C5" s="3">
-        <v>4.927740525705275E-2</v>
       </c>
       <c r="D5" s="3">
         <v>3.0713626121166484E-2</v>
@@ -2489,16 +2999,19 @@
       <c r="E5" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" s="3">
+        <v>1.1094541168821618E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="3">
+        <v>2.9979959841703423E-2</v>
+      </c>
+      <c r="C6" s="3">
         <v>1.5113264124356965E-2</v>
-      </c>
-      <c r="C6" s="3">
-        <v>2.9979959841703423E-2</v>
       </c>
       <c r="D6" s="3">
         <v>1.8605873478575098E-2</v>
@@ -2506,16 +3019,19 @@
       <c r="E6" s="3">
         <v>2.0479677678461664E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" s="3">
+        <v>3.1818903783982881E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="3">
+        <v>6.3474811526916905E-2</v>
+      </c>
+      <c r="C7" s="3">
         <v>6.1346113013867137E-2</v>
-      </c>
-      <c r="C7" s="3">
-        <v>6.3474811526916905E-2</v>
       </c>
       <c r="D7" s="3">
         <v>5.9520212115816762E-2</v>
@@ -2523,16 +3039,19 @@
       <c r="E7" s="3">
         <v>6.624116435309324E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" s="3">
+        <v>9.8142154448205454E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
         <v>5.1247704712592254E-2</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0</v>
       </c>
       <c r="D8" s="3">
         <v>5.061979498336807E-2</v>
@@ -2540,16 +3059,19 @@
       <c r="E8" s="3">
         <v>5.2540966181984394E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" s="3">
+        <v>7.5796711735124284E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="3">
+        <v>7.6293828838541827E-2</v>
+      </c>
+      <c r="C9" s="3">
         <v>4.7881568612167288E-2</v>
-      </c>
-      <c r="C9" s="3">
-        <v>7.6293828838541827E-2</v>
       </c>
       <c r="D9" s="3">
         <v>4.1478017626222788E-2</v>
@@ -2557,16 +3079,19 @@
       <c r="E9" s="3">
         <v>4.7880074020679335E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" s="3">
+        <v>6.7483654778539931E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="3">
+        <v>4.5004399486511117E-2</v>
+      </c>
+      <c r="C10" s="3">
         <v>1.9372456741221202E-2</v>
-      </c>
-      <c r="C10" s="3">
-        <v>4.5004399486511117E-2</v>
       </c>
       <c r="D10" s="3">
         <v>2.4105952608327607E-2</v>
@@ -2574,16 +3099,19 @@
       <c r="E10" s="3">
         <v>2.28101237591142E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" s="3">
+        <v>3.7808062385935724E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="3">
+        <v>5.0724713663203962E-2</v>
+      </c>
+      <c r="C11" s="3">
         <v>4.2042352927756654E-2</v>
-      </c>
-      <c r="C11" s="3">
-        <v>5.0724713663203962E-2</v>
       </c>
       <c r="D11" s="3">
         <v>3.6804534389103361E-2</v>
@@ -2591,16 +3119,19 @@
       <c r="E11" s="3">
         <v>3.9829442105697853E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" s="3">
+        <v>4.5397411834070124E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="3">
+        <v>8.2703337494354282E-3</v>
+      </c>
+      <c r="C12" s="3">
         <v>5.2209457884142239E-3</v>
-      </c>
-      <c r="C12" s="3">
-        <v>8.2703337494354282E-3</v>
       </c>
       <c r="D12" s="3">
         <v>7.1805004042254181E-3</v>
@@ -2608,16 +3139,19 @@
       <c r="E12" s="3">
         <v>5.5083270997241711E-3</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" s="3">
+        <v>6.9310290057766812E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="3">
+        <v>1.3439292342832568E-2</v>
+      </c>
+      <c r="C13" s="3">
         <v>1.4769780848803397E-2</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1.3439292342832568E-2</v>
       </c>
       <c r="D13" s="3">
         <v>1.8190187398152726E-2</v>
@@ -2625,16 +3159,19 @@
       <c r="E13" s="3">
         <v>1.4265154796721573E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" s="3">
+        <v>1.2075717975324725E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="3">
+        <v>2.701642358148906E-2</v>
+      </c>
+      <c r="C14" s="3">
         <v>2.0952479808767608E-2</v>
-      </c>
-      <c r="C14" s="3">
-        <v>2.701642358148906E-2</v>
       </c>
       <c r="D14" s="3">
         <v>2.7345166931883109E-2</v>
@@ -2642,16 +3179,19 @@
       <c r="E14" s="3">
         <v>1.9561623161840968E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" s="3">
+        <v>6.8556299314548241E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="3">
+        <v>6.064911416252647E-3</v>
+      </c>
+      <c r="C15" s="3">
         <v>4.121799306642809E-3</v>
-      </c>
-      <c r="C15" s="3">
-        <v>6.064911416252647E-3</v>
       </c>
       <c r="D15" s="3">
         <v>5.4004122173354685E-3</v>
@@ -2659,16 +3199,19 @@
       <c r="E15" s="3">
         <v>5.2470346603782816E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" s="3">
+        <v>5.2443146316847912E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="3">
+        <v>1.2956856207448837E-2</v>
+      </c>
+      <c r="C16" s="3">
         <v>8.7244751990606106E-3</v>
-      </c>
-      <c r="C16" s="3">
-        <v>1.2956856207448837E-2</v>
       </c>
       <c r="D16" s="3">
         <v>1.0870365947752878E-2</v>
@@ -2676,16 +3219,19 @@
       <c r="E16" s="3">
         <v>8.3331102277878488E-3</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" s="3">
+        <v>1.0678239394533072E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="3">
+        <v>1.0958192218001941E-2</v>
+      </c>
+      <c r="C17" s="3">
         <v>1.1678431368821292E-2</v>
-      </c>
-      <c r="C17" s="3">
-        <v>1.0958192218001941E-2</v>
       </c>
       <c r="D17" s="3">
         <v>1.2533221345447303E-2</v>
@@ -2693,16 +3239,19 @@
       <c r="E17" s="3">
         <v>1.7372416237591618E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" s="3">
+        <v>2.0257753589644864E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="3">
+        <v>1.1096031113825865E-2</v>
+      </c>
+      <c r="C18" s="3">
         <v>7.4879354070677695E-3</v>
-      </c>
-      <c r="C18" s="3">
-        <v>1.1096031113825865E-2</v>
       </c>
       <c r="D18" s="3">
         <v>9.919253853601491E-3</v>
@@ -2710,16 +3259,19 @@
       <c r="E18" s="3">
         <v>1.3205861123697694E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" s="3">
+        <v>9.7739449228302824E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="3">
+        <v>5.7203141766928372E-3</v>
+      </c>
+      <c r="C19" s="3">
         <v>4.121799306642809E-3</v>
-      </c>
-      <c r="C19" s="3">
-        <v>5.7203141766928372E-3</v>
       </c>
       <c r="D19" s="3">
         <v>5.344977356878707E-3</v>
@@ -2727,16 +3279,19 @@
       <c r="E19" s="3">
         <v>3.813457222885965E-3</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="3">
+        <v>1.2868290137105436E-2</v>
+      </c>
+      <c r="C20" s="3">
         <v>1.296053310623939E-2</v>
-      </c>
-      <c r="C20" s="3">
-        <v>1.2868290137105436E-2</v>
       </c>
       <c r="D20" s="3">
         <v>1.3183309532257914E-2</v>
@@ -2744,16 +3299,19 @@
       <c r="E20" s="3">
         <v>1.2164384692444418E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="3">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3">
         <v>3.11195847651532E-2</v>
-      </c>
-      <c r="C21" s="3">
-        <v>0</v>
       </c>
       <c r="D21" s="3">
         <v>3.9843042305763951E-2</v>
@@ -2761,16 +3319,19 @@
       <c r="E21" s="3">
         <v>4.5267149627220428E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21" s="3">
+        <v>3.3398576193545713E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="3">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3">
         <v>4.2591926168642352E-3</v>
-      </c>
-      <c r="C22" s="3">
-        <v>0</v>
       </c>
       <c r="D22" s="3">
         <v>5.5408598915598281E-3</v>
@@ -2778,16 +3339,19 @@
       <c r="E22" s="3">
         <v>4.3077942702971087E-3</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="3">
+        <v>4.6176030101014474E-2</v>
+      </c>
+      <c r="C23" s="3">
         <v>7.0757554764034877E-2</v>
-      </c>
-      <c r="C23" s="3">
-        <v>4.6176030101014474E-2</v>
       </c>
       <c r="D23" s="3">
         <v>8.1627233005555716E-2</v>
@@ -2795,16 +3359,19 @@
       <c r="E23" s="3">
         <v>6.7371077604318708E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23" s="3">
+        <v>0.29417999489511182</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="3">
+        <v>8.0146089301356555E-2</v>
+      </c>
+      <c r="C24" s="3">
         <v>8.072059556154064E-2</v>
-      </c>
-      <c r="C24" s="3">
-        <v>8.0146089301356555E-2</v>
       </c>
       <c r="D24" s="3">
         <v>8.2196243642773129E-2</v>
@@ -2812,16 +3379,19 @@
       <c r="E24" s="3">
         <v>7.5762036095652033E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B25" s="3">
+        <v>0.21779114144191897</v>
+      </c>
+      <c r="C25" s="3">
         <v>0.21935232022508513</v>
-      </c>
-      <c r="C25" s="3">
-        <v>0.21779114144191897</v>
       </c>
       <c r="D25" s="3">
         <v>0.22336228606096978</v>
@@ -2829,16 +3399,19 @@
       <c r="E25" s="3">
         <v>0.20587779719598415</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B26" s="10">
+        <v>7.8899999999999998E-2</v>
+      </c>
+      <c r="C26" s="10">
         <v>7.1199999999999999E-2</v>
-      </c>
-      <c r="C26" s="10">
-        <v>7.8899999999999998E-2</v>
       </c>
       <c r="D26" s="10">
         <v>5.1900000000000002E-2</v>
@@ -2846,6 +3419,1751 @@
       <c r="E26" s="10">
         <v>0.14130000000000001</v>
       </c>
+      <c r="F26" s="10">
+        <v>0.1237</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1392E45-2244-42B3-99B3-95EE8DB20A5B}">
+  <dimension ref="A1:J81"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="11">
+        <v>42628</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2">
+        <v>3400</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>4217.79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="11">
+        <v>42643</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>4247.6499999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="11">
+        <v>42658</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>4350.6000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="11">
+        <v>42673</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>4384.9399999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="11">
+        <v>42689</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>4513.2299999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="11">
+        <v>42704</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>4520.57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="11">
+        <v>42719</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>4344.78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="11">
+        <v>42734</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>4310.22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="11">
+        <v>42750</v>
+      </c>
+      <c r="B10" s="2">
+        <v>7400</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="5">
+        <f>SUM($B$2:B10)</f>
+        <v>7400</v>
+      </c>
+      <c r="I10" s="3">
+        <f>H10/800000</f>
+        <v>9.2499999999999995E-3</v>
+      </c>
+      <c r="J10" s="2">
+        <v>4267.66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="11">
+        <v>42765</v>
+      </c>
+      <c r="B11" s="2">
+        <v>7920</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="5">
+        <f>SUM($B$2:B11)</f>
+        <v>15320</v>
+      </c>
+      <c r="I11" s="3">
+        <f t="shared" ref="I11:I62" si="0">H11/800000</f>
+        <v>1.915E-2</v>
+      </c>
+      <c r="J11" s="2">
+        <v>4299.32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="11">
+        <v>42781</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2">
+        <v>3960</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="5">
+        <f>SUM($B$2:B12)</f>
+        <v>15320</v>
+      </c>
+      <c r="I12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.915E-2</v>
+      </c>
+      <c r="J12" s="2">
+        <v>4362.08</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="11">
+        <v>42794</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="5">
+        <f>SUM($B$2:B13)</f>
+        <v>15320</v>
+      </c>
+      <c r="I13" s="3">
+        <f t="shared" si="0"/>
+        <v>1.915E-2</v>
+      </c>
+      <c r="J13" s="2">
+        <v>4421.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="11">
+        <v>42809</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="5">
+        <f>SUM($B$2:B14)</f>
+        <v>15320</v>
+      </c>
+      <c r="I14" s="3">
+        <f t="shared" si="0"/>
+        <v>1.915E-2</v>
+      </c>
+      <c r="J14" s="2">
+        <v>4464.55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="11">
+        <v>42824</v>
+      </c>
+      <c r="B15" s="2">
+        <v>3960</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="5">
+        <f>SUM($B$2:B15)</f>
+        <v>19280</v>
+      </c>
+      <c r="I15" s="3">
+        <f t="shared" si="0"/>
+        <v>2.41E-2</v>
+      </c>
+      <c r="J15" s="2">
+        <v>4409.26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="11">
+        <v>42840</v>
+      </c>
+      <c r="B16" s="2">
+        <v>3960</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="5">
+        <f>SUM($B$2:B16)</f>
+        <v>23240</v>
+      </c>
+      <c r="I16" s="3">
+        <f t="shared" si="0"/>
+        <v>2.9049999999999999E-2</v>
+      </c>
+      <c r="J16" s="2">
+        <v>4439.76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="11">
+        <v>42855</v>
+      </c>
+      <c r="B17" s="2">
+        <v>15837.88</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2">
+        <v>3960</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="5">
+        <f>SUM($B$2:B17)</f>
+        <v>39077.879999999997</v>
+      </c>
+      <c r="I17" s="3">
+        <f t="shared" si="0"/>
+        <v>4.8847349999999998E-2</v>
+      </c>
+      <c r="J17" s="2">
+        <v>4279.7700000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="11">
+        <v>42870</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="5">
+        <f>SUM($B$2:B18)</f>
+        <v>39077.879999999997</v>
+      </c>
+      <c r="I18" s="3">
+        <f t="shared" si="0"/>
+        <v>4.8847349999999998E-2</v>
+      </c>
+      <c r="J18" s="2">
+        <v>4125.7700000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="11">
+        <v>42885</v>
+      </c>
+      <c r="B19" s="2">
+        <v>19420.400000000001</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2">
+        <v>3960</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="5">
+        <f>SUM($B$2:B19)</f>
+        <v>58498.28</v>
+      </c>
+      <c r="I19" s="3">
+        <f t="shared" si="0"/>
+        <v>7.3122850000000003E-2</v>
+      </c>
+      <c r="J19" s="2">
+        <v>4124.91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="11">
+        <v>42901</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="5">
+        <f>SUM($B$2:B20)</f>
+        <v>58498.28</v>
+      </c>
+      <c r="I20" s="3">
+        <f t="shared" si="0"/>
+        <v>7.3122850000000003E-2</v>
+      </c>
+      <c r="J20" s="2">
+        <v>4250.88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="11">
+        <v>42916</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="5">
+        <f>SUM($B$2:B21)</f>
+        <v>58498.28</v>
+      </c>
+      <c r="I21" s="3">
+        <f t="shared" si="0"/>
+        <v>7.3122850000000003E-2</v>
+      </c>
+      <c r="J21" s="2">
+        <v>4357.9799999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="11">
+        <v>42931</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="5">
+        <f>SUM($B$2:B22)</f>
+        <v>58498.28</v>
+      </c>
+      <c r="I22" s="3">
+        <f t="shared" si="0"/>
+        <v>7.3122850000000003E-2</v>
+      </c>
+      <c r="J22" s="2">
+        <v>4386.91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="11">
+        <v>42946</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="5">
+        <f>SUM($B$2:B23)</f>
+        <v>58498.28</v>
+      </c>
+      <c r="I23" s="3">
+        <f t="shared" si="0"/>
+        <v>7.3122850000000003E-2</v>
+      </c>
+      <c r="J23" s="2">
+        <v>4398.5200000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="11">
+        <v>42962</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="5">
+        <f>SUM($B$2:B24)</f>
+        <v>58498.28</v>
+      </c>
+      <c r="I24" s="3">
+        <f t="shared" si="0"/>
+        <v>7.3122850000000003E-2</v>
+      </c>
+      <c r="J24" s="2">
+        <v>4457.33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="11">
+        <v>42977</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="5">
+        <f>SUM($B$2:B25)</f>
+        <v>58498.28</v>
+      </c>
+      <c r="I25" s="3">
+        <f t="shared" si="0"/>
+        <v>7.3122850000000003E-2</v>
+      </c>
+      <c r="J25" s="2">
+        <v>4586.28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="11">
+        <v>42993</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="5">
+        <f>SUM($B$2:B26)</f>
+        <v>58498.28</v>
+      </c>
+      <c r="I26" s="3">
+        <f t="shared" si="0"/>
+        <v>7.3122850000000003E-2</v>
+      </c>
+      <c r="J26" s="2">
+        <v>4625.92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="11">
+        <v>43008</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="5">
+        <f>SUM($B$2:B27)</f>
+        <v>58498.28</v>
+      </c>
+      <c r="I27" s="3">
+        <f t="shared" si="0"/>
+        <v>7.3122850000000003E-2</v>
+      </c>
+      <c r="J27" s="2">
+        <v>4621.75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="11">
+        <v>43023</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="5">
+        <f>SUM($B$2:B28)</f>
+        <v>58498.28</v>
+      </c>
+      <c r="I28" s="3">
+        <f t="shared" si="0"/>
+        <v>7.3122850000000003E-2</v>
+      </c>
+      <c r="J28" s="2">
+        <v>4712.68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="11">
+        <v>43038</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="5">
+        <f>SUM($B$2:B29)</f>
+        <v>58498.28</v>
+      </c>
+      <c r="I29" s="3">
+        <f t="shared" si="0"/>
+        <v>7.3122850000000003E-2</v>
+      </c>
+      <c r="J29" s="2">
+        <v>4620.72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="11">
+        <v>43054</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2">
+        <v>3960</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="5">
+        <f>SUM($B$2:B30)</f>
+        <v>58498.28</v>
+      </c>
+      <c r="I30" s="3">
+        <f t="shared" si="0"/>
+        <v>7.3122850000000003E-2</v>
+      </c>
+      <c r="J30" s="2">
+        <v>4638.72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="11">
+        <v>43069</v>
+      </c>
+      <c r="B31" s="2">
+        <v>10903.58</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="5">
+        <f>SUM($B$2:B31)</f>
+        <v>69401.86</v>
+      </c>
+      <c r="I31" s="3">
+        <f t="shared" si="0"/>
+        <v>8.6752325000000005E-2</v>
+      </c>
+      <c r="J31" s="2">
+        <v>4551.1000000000004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="11">
+        <v>43084</v>
+      </c>
+      <c r="B32" s="5">
+        <v>3864.77</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="5">
+        <f>SUM($B$2:B32)</f>
+        <v>73266.63</v>
+      </c>
+      <c r="I32" s="3">
+        <f t="shared" si="0"/>
+        <v>9.1583287499999999E-2</v>
+      </c>
+      <c r="J32" s="2">
+        <v>4508.22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="11">
+        <v>43099</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="5">
+        <f>SUM($B$2:B33)</f>
+        <v>73266.63</v>
+      </c>
+      <c r="I33" s="3">
+        <f t="shared" si="0"/>
+        <v>9.1583287499999999E-2</v>
+      </c>
+      <c r="J33" s="2">
+        <v>4522.72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="11">
+        <v>43115</v>
+      </c>
+      <c r="B34" s="2">
+        <v>7945.99</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="5">
+        <f>SUM($B$2:B34)</f>
+        <v>81212.62000000001</v>
+      </c>
+      <c r="I34" s="3">
+        <f t="shared" si="0"/>
+        <v>0.10151577500000002</v>
+      </c>
+      <c r="J34" s="2">
+        <v>4662.1499999999996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="11">
+        <v>43130</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="5">
+        <f>SUM($B$2:B35)</f>
+        <v>81212.62000000001</v>
+      </c>
+      <c r="I35" s="3">
+        <f t="shared" si="0"/>
+        <v>0.10151577500000002</v>
+      </c>
+      <c r="J35" s="2">
+        <v>4511.7700000000004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="11">
+        <v>43146</v>
+      </c>
+      <c r="B36" s="2">
+        <v>65662.720000000001</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="5">
+        <f>SUM($B$2:B36)</f>
+        <v>146875.34000000003</v>
+      </c>
+      <c r="I36" s="3">
+        <f t="shared" si="0"/>
+        <v>0.18359417500000003</v>
+      </c>
+      <c r="J36" s="2">
+        <v>4253.1499999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="11">
+        <v>43159</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="5">
+        <f>SUM($B$2:B37)</f>
+        <v>146875.34000000003</v>
+      </c>
+      <c r="I37" s="3">
+        <f t="shared" si="0"/>
+        <v>0.18359417500000003</v>
+      </c>
+      <c r="J37" s="2">
+        <v>4392.63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="11">
+        <v>43174</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="5">
+        <f>SUM($B$2:B38)</f>
+        <v>146875.34000000003</v>
+      </c>
+      <c r="I38" s="3">
+        <f t="shared" si="0"/>
+        <v>0.18359417500000003</v>
+      </c>
+      <c r="J38" s="2">
+        <v>4376.25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="11">
+        <v>43189</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="5">
+        <f>SUM($B$2:B39)</f>
+        <v>146875.34000000003</v>
+      </c>
+      <c r="I39" s="3">
+        <f t="shared" si="0"/>
+        <v>0.18359417500000003</v>
+      </c>
+      <c r="J39" s="2">
+        <v>4341.21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="11">
+        <v>43205</v>
+      </c>
+      <c r="B40" s="2">
+        <v>20000</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="5">
+        <f>SUM($B$2:B40)</f>
+        <v>166875.34000000003</v>
+      </c>
+      <c r="I40" s="3">
+        <f t="shared" si="0"/>
+        <v>0.20859417500000002</v>
+      </c>
+      <c r="J40" s="2">
+        <v>4217.1000000000004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="11">
+        <v>43220</v>
+      </c>
+      <c r="B41" s="2">
+        <v>38105.120000000003</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2">
+        <v>-4072.25</v>
+      </c>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="5">
+        <f>SUM($B$2:B41)</f>
+        <v>204980.46000000002</v>
+      </c>
+      <c r="I41" s="3">
+        <f t="shared" si="0"/>
+        <v>0.25622557500000004</v>
+      </c>
+      <c r="J41" s="2">
+        <v>4213.41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="11">
+        <v>43235</v>
+      </c>
+      <c r="B42" s="2">
+        <v>44862.38</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2">
+        <v>25600</v>
+      </c>
+      <c r="F42" s="5">
+        <v>6442.89</v>
+      </c>
+      <c r="G42" s="2"/>
+      <c r="H42" s="5">
+        <f>SUM($B$2:B42)</f>
+        <v>249842.84000000003</v>
+      </c>
+      <c r="I42" s="3">
+        <f t="shared" si="0"/>
+        <v>0.31230355000000004</v>
+      </c>
+      <c r="J42" s="2">
+        <v>4346.62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="11">
+        <v>43250</v>
+      </c>
+      <c r="B43" s="5">
+        <v>6605.72</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2">
+        <v>6400</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="5">
+        <f>SUM($B$2:B43)</f>
+        <v>256448.56000000003</v>
+      </c>
+      <c r="I43" s="3">
+        <f t="shared" si="0"/>
+        <v>0.32056070000000003</v>
+      </c>
+      <c r="J43" s="2">
+        <v>4170.24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="11">
+        <v>43266</v>
+      </c>
+      <c r="B44" s="2">
+        <v>70657.350000000006</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2">
+        <v>6400</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="5">
+        <f>SUM($B$2:B44)</f>
+        <v>327105.91000000003</v>
+      </c>
+      <c r="I44" s="3">
+        <f t="shared" si="0"/>
+        <v>0.40888238750000006</v>
+      </c>
+      <c r="J44" s="2">
+        <v>4085.3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="11">
+        <v>43281</v>
+      </c>
+      <c r="B45" s="2">
+        <v>44670.01</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2">
+        <v>-4176.92</v>
+      </c>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="5">
+        <f>SUM($B$2:B45)</f>
+        <v>371775.92000000004</v>
+      </c>
+      <c r="I45" s="3">
+        <f t="shared" si="0"/>
+        <v>0.46471990000000007</v>
+      </c>
+      <c r="J45" s="2">
+        <v>3860.34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="11">
+        <v>43296</v>
+      </c>
+      <c r="B46" s="5">
+        <v>6381.68</v>
+      </c>
+      <c r="C46" s="2">
+        <v>6400</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="5">
+        <v>11514.12</v>
+      </c>
+      <c r="G46" s="2"/>
+      <c r="H46" s="5">
+        <f>SUM($B$2:B46)</f>
+        <v>378157.60000000003</v>
+      </c>
+      <c r="I46" s="3">
+        <f t="shared" si="0"/>
+        <v>0.47269700000000003</v>
+      </c>
+      <c r="J46" s="2">
+        <v>3853.38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="11">
+        <v>43311</v>
+      </c>
+      <c r="B47" s="2">
+        <v>31917.37</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2">
+        <v>4215.6099999999997</v>
+      </c>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="5">
+        <f>SUM($B$2:B47)</f>
+        <v>410074.97000000003</v>
+      </c>
+      <c r="I47" s="3">
+        <f t="shared" si="0"/>
+        <v>0.51259371250000008</v>
+      </c>
+      <c r="J47" s="2">
+        <v>3898.25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="11">
+        <v>43327</v>
+      </c>
+      <c r="B48" s="2">
+        <v>25569.67</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2">
+        <v>-6820.11</v>
+      </c>
+      <c r="F48" s="2">
+        <v>2559.96</v>
+      </c>
+      <c r="G48" s="2"/>
+      <c r="H48" s="5">
+        <f>SUM($B$2:B48)</f>
+        <v>435644.64</v>
+      </c>
+      <c r="I48" s="3">
+        <f t="shared" si="0"/>
+        <v>0.54455580000000003</v>
+      </c>
+      <c r="J48" s="2">
+        <v>3569.48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="11">
+        <v>43342</v>
+      </c>
+      <c r="B49" s="2">
+        <f>6693.34+12973.2</f>
+        <v>19666.54</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="5">
+        <v>2559.98</v>
+      </c>
+      <c r="G49" s="2"/>
+      <c r="H49" s="5">
+        <f>SUM($B$2:B49)</f>
+        <v>455311.18</v>
+      </c>
+      <c r="I49" s="3">
+        <f t="shared" si="0"/>
+        <v>0.56913897499999999</v>
+      </c>
+      <c r="J49" s="2">
+        <v>3625.91</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="11">
+        <v>43358</v>
+      </c>
+      <c r="B50" s="2">
+        <v>9628.42</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="5">
+        <f>SUM($B$2:B50)</f>
+        <v>464939.6</v>
+      </c>
+      <c r="I50" s="3">
+        <f t="shared" si="0"/>
+        <v>0.58117449999999993</v>
+      </c>
+      <c r="J50" s="2">
+        <v>3529.8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="11">
+        <v>43373</v>
+      </c>
+      <c r="B51" s="2">
+        <v>19208</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2">
+        <v>6400</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="5">
+        <f>SUM($B$2:B51)</f>
+        <v>484147.6</v>
+      </c>
+      <c r="I51" s="3">
+        <f t="shared" si="0"/>
+        <v>0.60518450000000001</v>
+      </c>
+      <c r="J51" s="2">
+        <v>3674.76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="11">
+        <v>43388</v>
+      </c>
+      <c r="B52" s="2">
+        <v>32065.88</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="5">
+        <f>SUM($B$2:B52)</f>
+        <v>516213.48</v>
+      </c>
+      <c r="I52" s="3">
+        <f t="shared" si="0"/>
+        <v>0.64526684999999995</v>
+      </c>
+      <c r="J52" s="2">
+        <v>3263.78</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="11">
+        <v>43403</v>
+      </c>
+      <c r="B53" s="2">
+        <v>38400</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2">
+        <v>6400</v>
+      </c>
+      <c r="E53" s="2">
+        <v>-6852.82</v>
+      </c>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="5">
+        <f>SUM($B$2:B53)</f>
+        <v>554613.48</v>
+      </c>
+      <c r="I53" s="3">
+        <f t="shared" si="0"/>
+        <v>0.69326684999999999</v>
+      </c>
+      <c r="J53" s="2">
+        <v>3468.19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="11">
+        <v>43419</v>
+      </c>
+      <c r="B54" s="2">
+        <v>6400</v>
+      </c>
+      <c r="C54" s="2">
+        <v>12800</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="5">
+        <f>SUM($B$2:B54)</f>
+        <v>561013.48</v>
+      </c>
+      <c r="I54" s="3">
+        <f t="shared" si="0"/>
+        <v>0.70126685</v>
+      </c>
+      <c r="J54" s="2">
+        <v>3558.93</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="11">
+        <v>43434</v>
+      </c>
+      <c r="B55" s="2">
+        <v>6400</v>
+      </c>
+      <c r="C55" s="2">
+        <v>12800</v>
+      </c>
+      <c r="D55" s="2">
+        <v>6400</v>
+      </c>
+      <c r="E55" s="2">
+        <v>-4323.3</v>
+      </c>
+      <c r="F55" s="2">
+        <v>6400</v>
+      </c>
+      <c r="G55" s="2"/>
+      <c r="H55" s="5">
+        <f>SUM($B$2:B55)</f>
+        <v>567413.48</v>
+      </c>
+      <c r="I55" s="3">
+        <f t="shared" si="0"/>
+        <v>0.70926685</v>
+      </c>
+      <c r="J55" s="2">
+        <v>3409.78</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="11">
+        <v>43449</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="5">
+        <f>SUM($B$2:B56)</f>
+        <v>567413.48</v>
+      </c>
+      <c r="I56" s="3">
+        <f t="shared" si="0"/>
+        <v>0.70926685</v>
+      </c>
+      <c r="J56" s="2">
+        <v>3397.06</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" s="11">
+        <v>43464</v>
+      </c>
+      <c r="B57" s="2">
+        <v>12800</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2">
+        <v>6400</v>
+      </c>
+      <c r="G57" s="2"/>
+      <c r="H57" s="5">
+        <f>SUM($B$2:B57)</f>
+        <v>580213.48</v>
+      </c>
+      <c r="I57" s="3">
+        <f t="shared" si="0"/>
+        <v>0.72526685000000002</v>
+      </c>
+      <c r="J57" s="2">
+        <v>3244.9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="11">
+        <v>43480</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2">
+        <v>6400</v>
+      </c>
+      <c r="E58" s="2">
+        <v>-5451.73</v>
+      </c>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="5">
+        <f>SUM($B$2:B58)</f>
+        <v>580213.48</v>
+      </c>
+      <c r="I58" s="3">
+        <f t="shared" si="0"/>
+        <v>0.72526685000000002</v>
+      </c>
+      <c r="J58" s="2">
+        <v>3403.29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" s="11">
+        <v>43495</v>
+      </c>
+      <c r="B59" s="2">
+        <v>6400</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2">
+        <v>6400</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="5">
+        <f>SUM($B$2:B59)</f>
+        <v>586613.48</v>
+      </c>
+      <c r="I59" s="3">
+        <f t="shared" si="0"/>
+        <v>0.73326685000000003</v>
+      </c>
+      <c r="J59" s="2">
+        <v>3400.72</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" s="11">
+        <v>43511</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="5">
+        <f>SUM($B$2:B60)</f>
+        <v>586613.48</v>
+      </c>
+      <c r="I60" s="3">
+        <f t="shared" si="0"/>
+        <v>0.73326685000000003</v>
+      </c>
+      <c r="J60" s="2">
+        <v>3547.76</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" s="11">
+        <v>43524</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="5">
+        <f>SUM($B$2:B61)</f>
+        <v>586613.48</v>
+      </c>
+      <c r="I61" s="3">
+        <f t="shared" si="0"/>
+        <v>0.73326685000000003</v>
+      </c>
+      <c r="J61" s="2">
+        <v>3988.71</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" s="11">
+        <v>43539</v>
+      </c>
+      <c r="B62" s="2">
+        <v>-8163.4</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="5">
+        <f>SUM($B$2:B62)</f>
+        <v>578450.07999999996</v>
+      </c>
+      <c r="I62" s="3">
+        <f t="shared" si="0"/>
+        <v>0.7230626</v>
+      </c>
+      <c r="J62" s="2">
+        <v>4114.28</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" s="11">
+        <v>43554</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" s="11">
+        <v>43570</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" s="11">
+        <v>43585</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" s="11">
+        <v>43600</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" s="11">
+        <v>43615</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" s="11">
+        <v>43631</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" s="11">
+        <v>43646</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" s="11">
+        <v>43661</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" s="11">
+        <v>43676</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" s="11">
+        <v>43692</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" s="11">
+        <v>43707</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74" s="11">
+        <v>43723</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75" s="11">
+        <v>43738</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76" s="11">
+        <v>43753</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77" s="11">
+        <v>43768</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A78" s="11">
+        <v>43784</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79" s="11">
+        <v>43799</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80" s="11">
+        <v>43814</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A81" s="11">
+        <v>43829</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Portfolio/虚拟组合情况.xlsx
+++ b/Portfolio/虚拟组合情况.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\finance-data\Portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5F0564-80FF-4261-B892-4A483A65E508}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72172034-9C04-47A7-8A1B-C7A0E826FF06}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16665" tabRatio="658" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16665" tabRatio="658" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="且慢组合" sheetId="1" r:id="rId1"/>
@@ -992,7 +992,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D25"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2453,8 +2453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0BCC24A-A7F3-4DD4-B790-DD51E3A9F6A4}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2492,11 +2492,11 @@
         <v>9.1999999999999998E-3</v>
       </c>
       <c r="C2" s="5">
-        <v>471.35</v>
+        <v>467.54</v>
       </c>
       <c r="D2" s="3">
         <f>C2/($E$26+$C$24+$F$8+$C$25)</f>
-        <v>5.8261235543618055E-3</v>
+        <v>5.7369764291180835E-3</v>
       </c>
       <c r="F2" s="1">
         <f>F4+F6+F8+F10</f>
@@ -2511,11 +2511,11 @@
         <v>6.7299999999999999E-2</v>
       </c>
       <c r="C3" s="5">
-        <v>4256.13</v>
+        <v>4253.67</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" ref="D3:D24" si="0">C3/($E$26+$C$24+$F$8+$C$25)</f>
-        <v>5.2607911834997155E-2</v>
+        <v>5.2194902098743882E-2</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>25</v>
@@ -2529,12 +2529,12 @@
         <v>0.26119999999999999</v>
       </c>
       <c r="C4" s="5">
-        <f>10672.24+3455.77</f>
-        <v>14128.01</v>
+        <f>10869.16+3510.92</f>
+        <v>14380.08</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" si="0"/>
-        <v>0.17462932393605415</v>
+        <v>0.17645159774315003</v>
       </c>
       <c r="F4" s="1">
         <v>72000</v>
@@ -2548,11 +2548,11 @@
         <v>7.1499999999999994E-2</v>
       </c>
       <c r="C5" s="5">
-        <v>897.58</v>
+        <v>910.23</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="0"/>
-        <v>1.1094541168821618E-2</v>
+        <v>1.1169029505659735E-2</v>
       </c>
       <c r="F5" s="1"/>
     </row>
@@ -2564,12 +2564,12 @@
         <v>4.3499999999999997E-2</v>
       </c>
       <c r="C6" s="5">
-        <f>2108.22+466.02</f>
-        <v>2574.2399999999998</v>
+        <f>2115.14+467.54</f>
+        <v>2582.6799999999998</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" si="0"/>
-        <v>3.1818903783982881E-2</v>
+        <v>3.1690923309138662E-2</v>
       </c>
       <c r="F6" s="1"/>
     </row>
@@ -2581,11 +2581,11 @@
         <v>9.2100000000000001E-2</v>
       </c>
       <c r="C7" s="5">
-        <v>7939.98</v>
+        <v>7988.27</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" si="0"/>
-        <v>9.8142154448205454E-2</v>
+        <v>9.8020525943087466E-2</v>
       </c>
       <c r="F7" s="1"/>
     </row>
@@ -2595,11 +2595,11 @@
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="5">
-        <v>6132.17</v>
+        <v>6243.12</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" si="0"/>
-        <v>7.5796711735124284E-2</v>
+        <v>7.6606562613157556E-2</v>
       </c>
       <c r="F8" s="1"/>
     </row>
@@ -2611,11 +2611,11 @@
         <v>0.11070000000000001</v>
       </c>
       <c r="C9" s="5">
-        <v>5459.62</v>
+        <v>5538.6</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" si="0"/>
-        <v>6.7483654778539931E-2</v>
+        <v>6.7961709480073185E-2</v>
       </c>
       <c r="F9" s="1"/>
     </row>
@@ -2627,11 +2627,11 @@
         <v>6.5299999999999997E-2</v>
       </c>
       <c r="C10" s="5">
-        <v>3058.78</v>
+        <v>3116.6</v>
       </c>
       <c r="D10" s="3">
         <f t="shared" si="0"/>
-        <v>3.7808062385935724E-2</v>
+        <v>3.8242419341637968E-2</v>
       </c>
       <c r="F10" s="1"/>
     </row>
@@ -2643,11 +2643,11 @@
         <v>7.3599999999999999E-2</v>
       </c>
       <c r="C11" s="5">
-        <v>3672.78</v>
+        <v>3703.13</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" si="0"/>
-        <v>4.5397411834070124E-2</v>
+        <v>4.5439469401463074E-2</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -2658,11 +2658,11 @@
         <v>1.2E-2</v>
       </c>
       <c r="C12" s="5">
-        <v>560.74</v>
+        <v>561.44000000000005</v>
       </c>
       <c r="D12" s="3">
         <f t="shared" si="0"/>
-        <v>6.9310290057766812E-3</v>
+        <v>6.8891817734612155E-3</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -2673,11 +2673,11 @@
         <v>1.95E-2</v>
       </c>
       <c r="C13" s="5">
-        <v>976.96</v>
+        <v>973.45</v>
       </c>
       <c r="D13" s="3">
         <f t="shared" si="0"/>
-        <v>1.2075717975324725E-2</v>
+        <v>1.1944774147506092E-2</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -2688,11 +2688,11 @@
         <v>3.9199999999999999E-2</v>
       </c>
       <c r="C14" s="5">
-        <v>554.64</v>
+        <v>556.63</v>
       </c>
       <c r="D14" s="3">
         <f t="shared" si="0"/>
-        <v>6.8556299314548241E-3</v>
+        <v>6.8301603921375681E-3</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -2703,11 +2703,11 @@
         <v>8.8000000000000005E-3</v>
       </c>
       <c r="C15" s="5">
-        <v>424.28</v>
+        <v>420.61</v>
       </c>
       <c r="D15" s="3">
         <f t="shared" si="0"/>
-        <v>5.2443146316847912E-3</v>
+        <v>5.161119168095472E-3</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -2718,11 +2718,11 @@
         <v>1.8800000000000001E-2</v>
       </c>
       <c r="C16" s="5">
-        <v>863.9</v>
+        <v>847.34</v>
       </c>
       <c r="D16" s="3">
         <f t="shared" si="0"/>
-        <v>1.0678239394533072E-2</v>
+        <v>1.0397334147771135E-2</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -2733,11 +2733,11 @@
         <v>1.5900000000000001E-2</v>
       </c>
       <c r="C17" s="5">
-        <v>1638.91</v>
+        <v>1616.33</v>
       </c>
       <c r="D17" s="3">
         <f t="shared" si="0"/>
-        <v>2.0257753589644864E-2</v>
+        <v>1.983327011951155E-2</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -2748,11 +2748,11 @@
         <v>1.61E-2</v>
       </c>
       <c r="C18" s="5">
-        <v>790.74</v>
+        <v>820.38</v>
       </c>
       <c r="D18" s="3">
         <f t="shared" si="0"/>
-        <v>9.7739449228302824E-3</v>
+        <v>1.0066519918979965E-2</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -2785,12 +2785,12 @@
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="5">
-        <f>1813.08+456.89+432.07</f>
-        <v>2702.04</v>
+        <f>1823.15+460.82+431.82</f>
+        <v>2715.7900000000004</v>
       </c>
       <c r="D21" s="3">
         <f t="shared" si="0"/>
-        <v>3.3398576193545713E-2</v>
+        <v>3.3324257211007832E-2</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -2816,7 +2816,7 @@
       </c>
       <c r="D23" s="3">
         <f t="shared" si="0"/>
-        <v>0.29417999489511182</v>
+        <v>0.29203926725629975</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -2849,7 +2849,7 @@
       <c r="D26" s="3"/>
       <c r="E26" s="4">
         <f>SUM(C2:C25)</f>
-        <v>80902.850000000006</v>
+        <v>81495.889999999985</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -2859,7 +2859,7 @@
       <c r="D27" s="3"/>
       <c r="E27" s="7">
         <f>E26/F2</f>
-        <v>1.1236506944444444</v>
+        <v>1.1318873611111109</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -2869,7 +2869,7 @@
       <c r="B28" s="6"/>
       <c r="E28" s="8">
         <f>E26+C20+C24+C25</f>
-        <v>80902.850000000006</v>
+        <v>81495.889999999985</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -2878,7 +2878,7 @@
       </c>
       <c r="E29" s="9">
         <f>E28/F2</f>
-        <v>1.1236506944444444</v>
+        <v>1.1318873611111109</v>
       </c>
     </row>
   </sheetData>
@@ -2893,7 +2893,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3433,8 +3433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1392E45-2244-42B3-99B3-95EE8DB20A5B}">
   <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="L56" sqref="L56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Portfolio/虚拟组合情况.xlsx
+++ b/Portfolio/虚拟组合情况.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20342"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="26812"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\finance-data\Portfolio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klq26/github/finance-data/Portfolio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72172034-9C04-47A7-8A1B-C7A0E826FF06}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16665" tabRatio="658" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="-8860" windowWidth="21600" windowHeight="37940" tabRatio="658" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="且慢组合" sheetId="1" r:id="rId1"/>
@@ -20,20 +19,20 @@
     <sheet name="模拟组合与实盘对比" sheetId="2" r:id="rId5"/>
     <sheet name="实盘仓位变化" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="110">
   <si>
     <t>品种</t>
     <rPh sb="0" eb="1">
@@ -434,17 +433,194 @@
   </si>
   <si>
     <t>万德全A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>代码</t>
+  </si>
+  <si>
+    <t>市值</t>
+  </si>
+  <si>
+    <t>占比</t>
+  </si>
+  <si>
+    <t>富国300</t>
+  </si>
+  <si>
+    <t>100038</t>
+  </si>
+  <si>
+    <t>富国500</t>
+  </si>
+  <si>
+    <t>161017</t>
+  </si>
+  <si>
+    <t>易方达创业板</t>
+  </si>
+  <si>
+    <t>110026</t>
+  </si>
+  <si>
+    <t>富国中证红利</t>
+  </si>
+  <si>
+    <t>100032</t>
+  </si>
+  <si>
+    <t>广发养老</t>
+  </si>
+  <si>
+    <t>000968</t>
+  </si>
+  <si>
+    <t>广发医药</t>
+  </si>
+  <si>
+    <t>001180</t>
+  </si>
+  <si>
+    <t>广发环保</t>
+  </si>
+  <si>
+    <t>001064</t>
+  </si>
+  <si>
+    <t>易方达消费</t>
+  </si>
+  <si>
+    <t>110022</t>
+  </si>
+  <si>
+    <t>广发金融地产</t>
+  </si>
+  <si>
+    <t>001469</t>
+  </si>
+  <si>
+    <t>华夏恒生ETF</t>
+  </si>
+  <si>
+    <t>000071</t>
+  </si>
+  <si>
+    <t>交银海外互联网</t>
+  </si>
+  <si>
+    <t>164906</t>
+  </si>
+  <si>
+    <t>华安德国30</t>
+  </si>
+  <si>
+    <t>000614</t>
+  </si>
+  <si>
+    <t>华宝油气</t>
+  </si>
+  <si>
+    <t>162411</t>
+  </si>
+  <si>
+    <t>兴全可转债</t>
+  </si>
+  <si>
+    <t>易方达安心债</t>
+  </si>
+  <si>
+    <t>长信可转债</t>
+  </si>
+  <si>
+    <t>货币基金</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>广发500</t>
+    <rPh sb="0" eb="1">
+      <t>guang'fa</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发传媒</t>
+    <rPh sb="0" eb="1">
+      <t>guang'fa</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chuan'mei</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>004752</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>华宝1000</t>
+    <rPh sb="0" eb="1">
+      <t>hua'bao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>162413</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>易方达证券</t>
+    <rPh sb="0" eb="1">
+      <t>yi'f'd</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zheng'quan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>502010</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏50</t>
+    <rPh sb="0" eb="1">
+      <t>hua'xia</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>001051</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发创业板</t>
+    <rPh sb="0" eb="1">
+      <t>guang'fa</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chuang'ye'b</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>003765</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="0.0000_);[Red]\(0.0000\)"/>
     <numFmt numFmtId="178" formatCode="0.0000"/>
+    <numFmt numFmtId="179" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -533,7 +709,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="26">
+  <cellStyleXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -612,8 +788,20 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -650,8 +838,20 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="26">
+  <cellStyles count="30">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
@@ -666,6 +866,8 @@
     <cellStyle name="超链接" xfId="20" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="22" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="28" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
@@ -678,6 +880,8 @@
     <cellStyle name="已访问的超链接" xfId="21" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="23" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="29" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -988,21 +1192,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -1484,20 +1688,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -1962,20 +2166,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="11.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -2450,20 +2654,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0BCC24A-A7F3-4DD4-B790-DD51E3A9F6A4}">
-  <dimension ref="A1:F29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -2880,6 +3084,386 @@
         <f>E28/F2</f>
         <v>1.1318873611111109</v>
       </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" s="5">
+        <v>468.4</v>
+      </c>
+      <c r="D35" s="13">
+        <f>C35/$C$58</f>
+        <v>5.7476807421036266E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="5">
+        <v>4253.67</v>
+      </c>
+      <c r="D36" s="13">
+        <f t="shared" ref="D36:D58" si="1">C36/$C$58</f>
+        <v>5.2196279125243245E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B37" s="15">
+        <v>162711</v>
+      </c>
+      <c r="C37" s="5">
+        <v>10869.16</v>
+      </c>
+      <c r="D37" s="13">
+        <f t="shared" si="1"/>
+        <v>0.13337417082588185</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="5">
+        <v>3510.92</v>
+      </c>
+      <c r="D38" s="13">
+        <f t="shared" si="1"/>
+        <v>4.3082082132934386E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C39" s="5">
+        <v>910.23</v>
+      </c>
+      <c r="D39" s="13">
+        <f t="shared" si="1"/>
+        <v>1.1169324171402614E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C40" s="5">
+        <v>467.54</v>
+      </c>
+      <c r="D40" s="13">
+        <f t="shared" si="1"/>
+        <v>5.7371277842936169E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" s="5">
+        <v>2115.14</v>
+      </c>
+      <c r="D41" s="13">
+        <f t="shared" si="1"/>
+        <v>2.5954631607286647E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C42" s="5">
+        <v>7988.27</v>
+      </c>
+      <c r="D42" s="13">
+        <f t="shared" si="1"/>
+        <v>9.8023111959274434E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" s="5">
+        <v>6243.12</v>
+      </c>
+      <c r="D43" s="13">
+        <f t="shared" si="1"/>
+        <v>7.6608583677715628E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" s="5">
+        <v>5538.6</v>
+      </c>
+      <c r="D44" s="13">
+        <f t="shared" si="1"/>
+        <v>6.7963502472705273E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C45" s="5">
+        <v>3116.6</v>
+      </c>
+      <c r="D45" s="13">
+        <f t="shared" si="1"/>
+        <v>3.8243428268232633E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" s="12">
+        <v>3703.13</v>
+      </c>
+      <c r="D46" s="13">
+        <f t="shared" si="1"/>
+        <v>4.5440668203471833E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C47" s="5">
+        <v>561.44000000000005</v>
+      </c>
+      <c r="D47" s="13">
+        <f t="shared" si="1"/>
+        <v>6.8893635265727176E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48" s="5">
+        <v>973.45</v>
+      </c>
+      <c r="D48" s="13">
+        <f t="shared" si="1"/>
+        <v>1.1945089279250162E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" s="5">
+        <v>556.63</v>
+      </c>
+      <c r="D49" s="13">
+        <f t="shared" si="1"/>
+        <v>6.8303405881237024E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C50" s="5">
+        <v>420.61</v>
+      </c>
+      <c r="D50" s="13">
+        <f t="shared" si="1"/>
+        <v>5.1612553307775547E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C51" s="5">
+        <v>847.34</v>
+      </c>
+      <c r="D51" s="13">
+        <f t="shared" si="1"/>
+        <v>1.039760845434263E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C52" s="5">
+        <v>1613.32</v>
+      </c>
+      <c r="D52" s="13">
+        <f t="shared" si="1"/>
+        <v>1.9796858016333525E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C53" s="5">
+        <v>820.38</v>
+      </c>
+      <c r="D53" s="13">
+        <f t="shared" si="1"/>
+        <v>1.0066785497879961E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B54" s="15">
+        <v>340001</v>
+      </c>
+      <c r="C54" s="2">
+        <v>1823.15</v>
+      </c>
+      <c r="D54" s="13">
+        <f t="shared" si="1"/>
+        <v>2.2371657013164452E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B55" s="15">
+        <v>110027</v>
+      </c>
+      <c r="C55" s="2">
+        <v>431.82</v>
+      </c>
+      <c r="D55" s="13">
+        <f t="shared" si="1"/>
+        <v>5.2988119087429295E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B56" s="15">
+        <v>519977</v>
+      </c>
+      <c r="C56" s="2">
+        <v>460.82</v>
+      </c>
+      <c r="D56" s="13">
+        <f t="shared" si="1"/>
+        <v>5.6546674628014382E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C57" s="5">
+        <f>C23</f>
+        <v>23800</v>
+      </c>
+      <c r="D57" s="13">
+        <f t="shared" si="1"/>
+        <v>0.29204697195146528</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C58" s="5">
+        <f>SUM(C35:C57)</f>
+        <v>81493.739999999991</v>
+      </c>
+      <c r="D58" s="13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C59" s="2"/>
+      <c r="D59" s="13"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2889,14 +3473,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
@@ -3430,16 +4014,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1392E45-2244-42B3-99B3-95EE8DB20A5B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J81"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="L56" sqref="L56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
